--- a/data/cl_matlab.xlsx
+++ b/data/cl_matlab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucyl\Documents\GitHub\Controller\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AED3138D-C332-4506-8D4E-50EA2D17B479}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD9572-E9AE-474A-82C5-A77B6BE9533A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6648" xr2:uid="{0EB35E60-1A6C-463A-A42B-6B81930ADDE8}"/>
   </bookViews>
@@ -128,7 +128,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -151,10 +151,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$401</c:f>
+              <c:f>Sheet1!$A$1:$A$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="401"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -904,1671 +904,762 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2.5100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2.5300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2.5500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2.63</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2.65</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2.66</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2.67</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2.72</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2.7600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2.77</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2.7800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2.79</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2.82</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2.83</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2.84</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2.89</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2.91</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2.94</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2.95</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>3.0100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>3.02</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>3.0300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>3.0500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>3.0700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>3.11</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>3.15</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>3.17</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>3.18</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>3.19</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>3.24</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>3.2600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>3.27</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>3.2800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>3.29</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>3.3000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>3.31</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>3.3200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>3.34</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>3.38</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>3.42</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>3.43</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>3.46</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>3.47</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>3.49</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>3.5100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>3.5300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>3.54</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>3.5500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>3.56</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>3.5700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>3.58</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>3.59</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>3.61</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>3.62</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>3.63</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>3.64</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>3.65</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>3.66</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>3.71</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>3.72</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>3.73</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>3.74</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>3.7600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>3.77</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>3.7800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>3.79</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>3.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>3.8200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>3.84</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>3.85</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>3.88</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>3.89</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>3.91</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>3.92</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>3.95</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>3.96</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$401</c:f>
+              <c:f>Sheet1!$C$1:$C$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="401"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="250"/>
                 <c:pt idx="1">
-                  <c:v>0.13985327953705701</c:v>
+                  <c:v>8.9033362983740947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55100363816604137</c:v>
+                  <c:v>35.07798107029744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2081004660690104</c:v>
+                  <c:v>76.910064370602242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0853301880233333</c:v>
+                  <c:v>132.75624296106599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1559339680481151</c:v>
+                  <c:v>200.91299643459087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3918269384677373</c:v>
+                  <c:v>279.59238658451426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7636347880056054</c:v>
+                  <c:v>366.92438667500016</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2406945418788871</c:v>
+                  <c:v>460.95693110341261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7903384789377768</c:v>
+                  <c:v>559.61032814953592</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.378150435147576</c:v>
+                  <c:v>660.69357676201662</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.968204689154764</c:v>
+                  <c:v>761.91957448583253</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.523640605008463</c:v>
+                  <c:v>860.94170035414686</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.007264235895653</c:v>
+                  <c:v>955.39211417160357</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.382960993365078</c:v>
+                  <c:v>1042.9716898303041</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.616572057844493</c:v>
+                  <c:v>1121.5058093362054</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.677905365555446</c:v>
+                  <c:v>1189.0723862123134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.542611259369366</c:v>
+                  <c:v>1244.1212731407859</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.193477399157135</c:v>
+                  <c:v>1285.5566985161313</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.621292319015424</c:v>
+                  <c:v>1312.7922422056952</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20.82531614111133</c:v>
+                  <c:v>1325.7808021237213</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.818023132256464</c:v>
+                  <c:v>1325.3165147600153</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.615670074645763</c:v>
+                  <c:v>1312.4343190126147</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.237887674675193</c:v>
+                  <c:v>1288.3839444652401</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.713781911561387</c:v>
+                  <c:v>1255.0183353042353</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19.075147972338033</c:v>
+                  <c:v>1214.361636002777</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>18.355152534322869</c:v>
+                  <c:v>1168.5253028172858</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.586299210263711</c:v>
+                  <c:v>1119.578580002626</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>16.799583979128691</c:v>
+                  <c:v>1069.4947328662975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>16.022820278716321</c:v>
+                  <c:v>1020.0444198523052</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>15.280191280814073</c:v>
+                  <c:v>972.76718949249562</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>14.591980362445714</c:v>
+                  <c:v>928.95432167324077</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>13.97430083038963</c:v>
+                  <c:v>889.63162136387496</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.439233725889716</c:v>
+                  <c:v>855.5681915370634</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>12.994997909819963</c:v>
+                  <c:v>827.28726112667812</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>12.646367651894828</c:v>
+                  <c:v>805.09276958260295</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>12.394994008215063</c:v>
+                  <c:v>789.08982640074078</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.240038701615834</c:v>
+                  <c:v>779.22506519930585</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.177877276224299</c:v>
+                  <c:v>775.26774595102552</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.201371222903196</c:v>
+                  <c:v>776.76341704969911</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>12.303930982040663</c:v>
+                  <c:v>783.29257410131584</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>12.478851134856633</c:v>
+                  <c:v>794.42833688813641</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.714732462447056</c:v>
+                  <c:v>809.4450085957742</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>13.001526907539271</c:v>
+                  <c:v>827.70291003086345</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13.327872559189048</c:v>
+                  <c:v>848.47871947750662</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>13.682128452561914</c:v>
+                  <c:v>871.03135009739742</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>14.052534928996886</c:v>
+                  <c:v>894.6121587685484</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>14.427673251046617</c:v>
+                  <c:v>918.49420608751393</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>14.796698593247461</c:v>
+                  <c:v>941.98708902249098</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>15.149449761065339</c:v>
+                  <c:v>964.44392583835258</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15.476794169430688</c:v>
+                  <c:v>985.28331811228759</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.770808384593517</c:v>
+                  <c:v>1004.0008443852669</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>16.025127449519378</c:v>
+                  <c:v>1020.1912989074506</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.235030492351118</c:v>
+                  <c:v>1033.5541416421311</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>16.396248191788981</c:v>
+                  <c:v>1043.8175791539068</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>16.509897622129916</c:v>
+                  <c:v>1051.0527266012421</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>16.57268122441609</c:v>
+                  <c:v>1055.0496548608262</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.585591109102673</c:v>
+                  <c:v>1055.8715236458725</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>16.552464136872995</c:v>
+                  <c:v>1053.7625950938641</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>16.476871630041611</c:v>
+                  <c:v>1048.950226644695</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16.367925350530879</c:v>
+                  <c:v>1042.0144910784534</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>16.232484950282085</c:v>
+                  <c:v>1033.3920874008772</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>16.074394044956879</c:v>
+                  <c:v>1023.3277077847254</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>15.90276995563323</c:v>
+                  <c:v>1012.4017789169238</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>15.72215957835432</c:v>
+                  <c:v>1000.9037651898717</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>15.540007514400816</c:v>
+                  <c:v>989.30760464083517</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.361680205250927</c:v>
+                  <c:v>977.95493554504253</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>15.191791890075635</c:v>
+                  <c:v>967.13950949156185</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>15.036030399929155</c:v>
+                  <c:v>957.22342505149311</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.896253781241004</c:v>
+                  <c:v>948.32496913433704</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>14.776945179268109</c:v>
+                  <c:v>940.72954763138932</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>14.679978758745065</c:v>
+                  <c:v>934.55647357532121</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>14.603635640936819</c:v>
+                  <c:v>929.69631974722961</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>14.550348187074835</c:v>
+                  <c:v>926.30393507246322</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>14.523368224649493</c:v>
+                  <c:v>924.58633731869247</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>14.520691216351318</c:v>
+                  <c:v>924.41591367735145</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>14.540447515280935</c:v>
+                  <c:v>925.67363873009128</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>14.580911291058044</c:v>
+                  <c:v>928.2496427025269</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>14.638693638981399</c:v>
+                  <c:v>931.92818122071003</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>14.705822921409338</c:v>
+                  <c:v>936.20176407055737</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>14.780951538219663</c:v>
+                  <c:v>940.98460036376537</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>14.863464072611235</c:v>
+                  <c:v>946.2375114499489</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>14.952009407649568</c:v>
+                  <c:v>951.87448255358026</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>15.039259013491062</c:v>
+                  <c:v>957.42896497457753</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.123718089969843</c:v>
+                  <c:v>962.80579677880735</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>15.20560129954646</c:v>
+                  <c:v>968.01864380294683</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>15.282832049925764</c:v>
+                  <c:v>972.9353060755717</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>15.349067201484939</c:v>
+                  <c:v>977.15196678640518</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>15.404705917376836</c:v>
+                  <c:v>980.69403745099737</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>15.45056330181216</c:v>
+                  <c:v>983.61340921505644</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>15.487391923300708</c:v>
+                  <c:v>985.95799207792152</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>15.515886340330647</c:v>
+                  <c:v>987.77200300625623</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>15.536687712822438</c:v>
+                  <c:v>989.09625950832185</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>15.548776727861858</c:v>
+                  <c:v>989.86587010857625</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>15.545683742759564</c:v>
+                  <c:v>989.66896456140034</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>15.530642033242666</c:v>
+                  <c:v>988.71137959253372</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>15.511014724909927</c:v>
+                  <c:v>987.46186633623608</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>15.487396427586498</c:v>
+                  <c:v>985.95827882966103</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>15.460094142668117</c:v>
+                  <c:v>984.22016138867536</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15.429391297672446</c:v>
+                  <c:v>982.26555756945743</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>15.39554951068156</c:v>
+                  <c:v>980.11112249639234</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>15.358810235836316</c:v>
+                  <c:v>977.77222761749942</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>15.319396403689357</c:v>
+                  <c:v>975.26306513254633</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>15.277513760536923</c:v>
+                  <c:v>972.59673325756091</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>15.233352234994832</c:v>
+                  <c:v>969.78532322375963</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>15.190676786493215</c:v>
+                  <c:v>967.06851979268129</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>15.15512494398266</c:v>
+                  <c:v>964.80521920404954</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>15.126229760871968</c:v>
+                  <c:v>962.96569471460475</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>15.103479132113911</c:v>
+                  <c:v>961.5173447044873</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>15.086400352027949</c:v>
+                  <c:v>960.43007579542325</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>15.074557084191108</c:v>
+                  <c:v>959.67610994798542</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>15.067546553433921</c:v>
+                  <c:v>959.22980569850381</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>15.06499697667194</c:v>
+                  <c:v>959.06749460071921</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>15.066565166259194</c:v>
+                  <c:v>959.16732865052586</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>15.071934342689216</c:v>
+                  <c:v>959.50914103819423</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>15.080812089719792</c:v>
+                  <c:v>960.0743159675684</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>15.092928492969694</c:v>
+                  <c:v>960.84567015545497</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>15.108034397546287</c:v>
+                  <c:v>961.80734190875069</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>15.125899823356919</c:v>
+                  <c:v>962.94469024003217</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>15.146312473533879</c:v>
+                  <c:v>964.24419991093964</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>15.169076393178527</c:v>
+                  <c:v>965.69339604517666</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>15.194010672328702</c:v>
+                  <c:v>967.28076155684994</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>15.220948402070857</c:v>
+                  <c:v>968.99567069450507</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>15.247332035462483</c:v>
+                  <c:v>970.67530496290578</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>15.266578276281653</c:v>
+                  <c:v>971.90055870782896</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15.278842938817386</c:v>
+                  <c:v>972.6813513749953</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>15.284663128123004</c:v>
+                  <c:v>973.05187613408305</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>15.284534620823154</c:v>
+                  <c:v>973.04369510528534</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>15.278915080307819</c:v>
+                  <c:v>972.68594404491694</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>15.26822685315361</c:v>
+                  <c:v>972.00551037112439</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>15.252859960314975</c:v>
+                  <c:v>971.02722358903156</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>15.233174303319061</c:v>
+                  <c:v>969.77399574146705</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>15.212492463605621</c:v>
+                  <c:v>968.4573489324157</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>15.197120239237508</c:v>
+                  <c:v>967.47872273461462</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>15.186852344409671</c:v>
+                  <c:v>966.8250482478154</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>15.181295955073022</c:v>
+                  <c:v>966.47131751634697</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>15.180088637363822</c:v>
+                  <c:v>966.39445728382645</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>15.182895814329738</c:v>
+                  <c:v>966.57316771993021</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>15.18940869417602</c:v>
+                  <c:v>966.98779052844998</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>15.199342144436665</c:v>
+                  <c:v>967.62017361282562</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>15.212433026452503</c:v>
+                  <c:v>968.45356504572692</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>15.228438438073058</c:v>
+                  <c:v>969.4725011959797</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>15.242649949114126</c:v>
+                  <c:v>970.3772340883761</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>15.250272300792437</c:v>
+                  <c:v>970.86248806741116</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>15.251807326352084</c:v>
+                  <c:v>970.96021082964739</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>15.247723337299943</c:v>
+                  <c:v>970.70021601157475</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>15.238452540020722</c:v>
+                  <c:v>970.11001872621841</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>15.224756163555645</c:v>
+                  <c:v>969.23808031947272</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>15.213591838933475</c:v>
+                  <c:v>968.5273373395122</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>15.207208013008518</c:v>
+                  <c:v>968.12093035879411</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>15.205236954818849</c:v>
+                  <c:v>967.99544889719118</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>15.207339091009711</c:v>
+                  <c:v>968.1292750435224</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>15.213201234610496</c:v>
+                  <c:v>968.50247069599413</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>15.222533978860643</c:v>
+                  <c:v>969.09661164800355</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>15.234107562197773</c:v>
+                  <c:v>969.83340884695951</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>15.240702137611185</c:v>
+                  <c:v>970.25323255681428</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>15.241288411080609</c:v>
+                  <c:v>970.29055588507924</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>15.236328705648598</c:v>
+                  <c:v>969.97481123076557</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>15.226456251503892</c:v>
+                  <c:v>969.34631127973444</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>15.218346184339826</c:v>
+                  <c:v>968.83000836854706</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>15.214781658673264</c:v>
+                  <c:v>968.60308361670263</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>15.21541298319635</c:v>
+                  <c:v>968.64327498412024</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>15.219917345377125</c:v>
+                  <c:v>968.93003158673889</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>15.227996845628724</c:v>
+                  <c:v>969.4443885478405</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>15.23556207866895</c:v>
+                  <c:v>969.92600624143824</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>15.237097460638351</c:v>
+                  <c:v>970.02375169342395</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>15.233013753884793</c:v>
+                  <c:v>969.76377484703721</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>15.224794783852879</c:v>
+                  <c:v>969.24053896395606</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>15.219819446981994</c:v>
+                  <c:v>968.92379918133645</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>15.219148478631585</c:v>
+                  <c:v>968.88108400948613</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>15.222450762438086</c:v>
+                  <c:v>969.09131392600511</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>15.229408454553063</c:v>
+                  <c:v>969.53425436304906</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>15.234536841182512</c:v>
+                  <c:v>969.86073759591443</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>15.233769810576003</c:v>
+                  <c:v>969.81190691090285</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>15.227663337245739</c:v>
+                  <c:v>969.42315674475469</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>15.222557232779707</c:v>
+                  <c:v>969.09809203846964</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>15.221765629428926</c:v>
+                  <c:v>969.04769700397162</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>15.224956522976905</c:v>
+                  <c:v>969.25083559638801</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>15.231209451732191</c:v>
+                  <c:v>969.64890940447003</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>15.23339416585913</c:v>
+                  <c:v>969.78799262548807</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>15.229909918573403</c:v>
+                  <c:v>969.56617855409706</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>15.224487430560218</c:v>
+                  <c:v>969.22097224563504</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>15.223269689393481</c:v>
+                  <c:v>969.1434484351978</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>15.226067243243804</c:v>
+                  <c:v>969.32154624473571</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>15.231434075005696</c:v>
+                  <c:v>969.66320936619491</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>15.23210672614419</c:v>
+                  <c:v>969.70603166766193</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>15.227461295790819</c:v>
+                  <c:v>969.41029438625071</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>15.224276146656271</c:v>
+                  <c:v>969.20752149455143</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>15.225257601458733</c:v>
+                  <c:v>969.27000284784469</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>15.229925048901981</c:v>
+                  <c:v>969.56714178073048</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>15.231837429163683</c:v>
+                  <c:v>969.68888768941883</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>15.228154205301228</c:v>
+                  <c:v>969.45440637572949</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>15.224948353044356</c:v>
+                  <c:v>969.25031548232801</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>15.225910813056473</c:v>
+                  <c:v>969.3115875897106</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>15.230344118836051</c:v>
+                  <c:v>969.59382060133385</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>15.231339693002605</c:v>
+                  <c:v>969.65720082126245</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>15.227250648211026</c:v>
+                  <c:v>969.39688414482089</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>15.225254509855882</c:v>
+                  <c:v>969.26980603029426</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>15.22733357475418</c:v>
+                  <c:v>969.40216341252358</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>15.231125690448708</c:v>
+                  <c:v>969.64357699554785</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>15.229679287959158</c:v>
+                  <c:v>969.55149615318282</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>15.226015306397844</c:v>
+                  <c:v>969.31823984243056</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>15.226394977872253</c:v>
+                  <c:v>969.34241047919181</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>15.23019718954221</c:v>
+                  <c:v>969.5844667919738</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>15.230396841080823</c:v>
+                  <c:v>969.59717700368037</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>15.226704330127804</c:v>
+                  <c:v>969.36210445544282</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>15.22640909503256</c:v>
+                  <c:v>969.34330920552986</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>15.229827566929172</c:v>
+                  <c:v>969.56093588559645</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>15.23031517206346</c:v>
+                  <c:v>969.59197779255601</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>15.226847631464031</c:v>
+                  <c:v>969.37122730184774</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>15.226731261509329</c:v>
+                  <c:v>969.36381896044031</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>15.230071239436631</c:v>
+                  <c:v>969.57644855921967</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>15.229835530272961</c:v>
+                  <c:v>969.56144284780748</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>15.226575299849831</c:v>
+                  <c:v>969.35389013282349</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>15.227116823609965</c:v>
+                  <c:v>969.38836460611435</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>15.230407062914885</c:v>
+                  <c:v>969.59782774584778</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>15.229168824238551</c:v>
+                  <c:v>969.51899902342143</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>15.22656714746471</c:v>
+                  <c:v>969.35337113586775</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>15.228056899729316</c:v>
+                  <c:v>969.4482117106254</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>15.23046295474607</c:v>
+                  <c:v>969.60138593033241</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>15.227798215780291</c:v>
+                  <c:v>969.43174337895107</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>15.226875897766934</c:v>
+                  <c:v>969.37302679057973</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>15.229693641317503</c:v>
+                  <c:v>969.55240991635515</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>15.229552678117608</c:v>
+                  <c:v>969.54343592033206</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>15.226917280703626</c:v>
+                  <c:v>969.3756613101533</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>15.228204490253413</c:v>
+                  <c:v>969.4576076152108</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>15.230308548015765</c:v>
+                  <c:v>969.59155609258244</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>15.22754975557911</c:v>
+                  <c:v>969.41592591127926</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>15.226992261325817</c:v>
+                  <c:v>969.3804347248165</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>15.229925526949241</c:v>
+                  <c:v>969.56717221416432</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>15.229315614182903</c:v>
+                  <c:v>969.52834396151729</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>15.226885902710089</c:v>
+                  <c:v>969.37366372504312</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>15.228488384299217</c:v>
+                  <c:v>969.47568087149239</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>15.230118614017998</c:v>
+                  <c:v>969.57946451874011</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>15.227404359342239</c:v>
+                  <c:v>969.40666969935728</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>15.227686056566352</c:v>
+                  <c:v>969.4246031016263</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>15.2301085007218</c:v>
+                  <c:v>969.57882068630784</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>15.227900117308204</c:v>
+                  <c:v>969.43823063170134</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>15.227278369028825</c:v>
+                  <c:v>969.39864890689262</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>15.229977497832396</c:v>
+                  <c:v>969.57048078334458</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>15.228822112564917</c:v>
+                  <c:v>969.49692667274667</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>15.227048622940307</c:v>
+                  <c:v>969.38402281663514</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>15.229295239360537</c:v>
+                  <c:v>969.5270468600396</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>15.229728562531118</c:v>
+                  <c:v>969.55463306986132</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>15.227088483966703</c:v>
+                  <c:v>969.38656044839013</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>15.228202430395326</c:v>
+                  <c:v>969.45747648057227</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>15.230132467619088</c:v>
+                  <c:v>969.58034646637736</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>15.227537504773359</c:v>
+                  <c:v>969.41514600076243</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>15.227610030495306</c:v>
+                  <c:v>969.41976313162195</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>15.230099128423948</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>15.228056167111461</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>15.227360416421899</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>15.22989534502266</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>15.22848492797158</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>15.227325026526936</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>15.229713328819997</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>15.228637374666441</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>15.22738878241522</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>15.229706014115191</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>15.228596583667091</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>15.227442466014049</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>15.229771365451462</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>15.228530540238108</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>15.227428007985667</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>15.229760129332954</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>15.228462473721958</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>15.227522489566335</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>15.229796180439887</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>15.228212814914857</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>15.227602676959858</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>15.229890852893991</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>15.228089265726902</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>15.227726807560035</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>15.229914907485568</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>15.227903961778813</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>15.227822277140545</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>15.230009691582143</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>15.227817248107332</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>15.227599242770985</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>15.230015717181496</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>15.228076066832561</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>15.227504577559111</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>15.229923635558617</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>15.228226616093258</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>15.227531808238995</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>15.22990582784103</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>15.228239787738955</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>15.227524083991996</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>15.229887258077468</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>15.228231288150784</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>15.227564709581227</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>15.229895000435539</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>15.228165228217525</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>15.227632430484563</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>15.229926012967683</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>15.228084046750878</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>15.22775356117482</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>15.229932691781652</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>15.22790472227482</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>15.227853564052367</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>15.229900225742192</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>15.227704288856163</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>15.22789000958239</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>15.229996544287122</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>15.227762634257557</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>15.227905662789883</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>15.229968755429335</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>15.227693050774121</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>15.227800125828084</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>15.230027042277586</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>15.227834813664622</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>15.227713080463001</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>15.22997025309536</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>15.227865150358125</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>15.227617333282534</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>15.230008406396243</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>15.228036748969851</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>15.227404014775077</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>15.229930785927602</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>15.228430482535716</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>15.227297485174937</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>15.229759543574007</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>15.228847575837197</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>15.227221300107972</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>15.229485552954156</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>15.229201471521442</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>15.227230285950588</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>15.229231097369166</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>15.229371371837129</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>15.227281683806115</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>15.229122757947856</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>15.229476856113736</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>15.227272507655943</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>15.228950019470476</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>15.229558364499409</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>15.227308782443385</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>15.228863692314455</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>15.229577228918613</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>15.227305409608327</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>15.228799076729413</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>15.229606145922428</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>15.227354218610083</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>15.228840826867811</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>15.229562881564149</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>15.227358478182119</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>15.228933453672479</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>15.229444179549095</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>15.227363609051029</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>15.229131426007424</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>15.229347527927564</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>15.227360411128798</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>15.229264914737898</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>15.229252012768466</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>15.227326041471386</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>15.229308772903426</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>15.229181408539143</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>15.227427181586089</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>15.229494858442155</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>15.228895516895783</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>15.227413746643077</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>15.22962333701083</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>15.228671024604141</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>15.227491804552953</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>15.229749431684196</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>15.22840096555764</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>15.22758405168452</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>15.229848692938166</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>15.228160930595566</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>15.227712133753812</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>15.229898310779308</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>15.227930678102185</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>15.227845118581749</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>15.229929698460088</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>15.22779978889124</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>15.228025858344644</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>15.229873542134783</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>15.22765565058805</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>15.228307254936901</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>15.229758309726531</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>15.227514397773392</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>15.228630475292348</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>15.229708894961842</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>15.227396618712795</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>15.228678640540679</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>15.229672169756427</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>15.2274290436252</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>15.228850954243109</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>15.229512833922684</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>15.227381694687505</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>15.229058423070086</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>15.229383406236744</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>15.227436435371979</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>15.229327414097458</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>15.229028971734268</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>15.227445788817613</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>15.229577275586832</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>15.228644407579374</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>15.227562663876936</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>15.229764055013852</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>15.22820828924983</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>15.227653385251076</c:v>
+                  <c:v>969.57822402729528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,10 +1935,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$401</c:f>
+              <c:f>Sheet1!$D$1:$D$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="401"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3597,469 +2688,16 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2.5100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>2.52</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2.5300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2.54</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>2.5500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2.56</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2.57</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2.59</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>2.61</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2.62</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2.63</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2.65</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2.66</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>2.67</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2.68</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2.69</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2.71</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2.72</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>2.7600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2.77</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2.7800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>2.79</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2.81</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>2.82</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2.83</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2.84</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>2.85</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2.86</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2.87</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2.89</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>2.91</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2.92</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>2.94</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2.95</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2.99</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>3.0100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>3.02</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>3.0300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>3.04</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>3.0500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>3.06</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>3.0700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>3.08</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>3.09</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>3.11</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>3.14</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>3.15</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>3.16</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>3.17</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>3.18</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>3.19</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>3.21</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>3.24</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>3.25</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>3.2600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>3.27</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>3.2800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>3.29</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>3.3000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>3.31</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>3.3200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>3.34</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>3.35</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>3.38</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>3.42</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>3.43</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>3.46</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>3.47</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>3.49</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>3.5100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>3.52</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>3.5300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>3.54</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>3.5500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>3.56</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>3.5700000000000003</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>3.58</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>3.59</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>3.61</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>3.62</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>3.63</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>3.64</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>3.65</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>3.66</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>3.67</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>3.71</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>3.72</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>3.73</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>3.74</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>3.7600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>3.77</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>3.7800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>3.79</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>3.8000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>3.81</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>3.8200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>3.83</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>3.84</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>3.85</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>3.86</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>3.88</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>3.89</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>3.91</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>3.92</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>3.93</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>3.94</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>3.95</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>3.96</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>3.97</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>3.99</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$1:$E$401</c:f>
+              <c:f>Sheet1!$E$1:$E$250</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="401"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -4809,459 +3447,6 @@
                 </c:pt>
                 <c:pt idx="249">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6948,8 +5133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EC0D04-8A16-4EF2-8CD4-5290506D676D}">
   <dimension ref="A1:E401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -6975,6 +5160,10 @@
       <c r="B2">
         <v>0.13985327953705701</v>
       </c>
+      <c r="C2">
+        <f>B2/(2*PI())*400</f>
+        <v>8.9033362983740947</v>
+      </c>
       <c r="D2">
         <v>0.01</v>
       </c>
@@ -6989,6 +5178,10 @@
       <c r="B3">
         <v>0.55100363816604137</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3/(2*PI())*400</f>
+        <v>35.07798107029744</v>
+      </c>
       <c r="D3">
         <v>0.02</v>
       </c>
@@ -7003,6 +5196,10 @@
       <c r="B4">
         <v>1.2081004660690104</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>76.910064370602242</v>
+      </c>
       <c r="D4">
         <v>0.03</v>
       </c>
@@ -7017,6 +5214,10 @@
       <c r="B5">
         <v>2.0853301880233333</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>132.75624296106599</v>
+      </c>
       <c r="D5">
         <v>0.04</v>
       </c>
@@ -7031,6 +5232,10 @@
       <c r="B6">
         <v>3.1559339680481151</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>200.91299643459087</v>
+      </c>
       <c r="D6">
         <v>0.05</v>
       </c>
@@ -7045,6 +5250,10 @@
       <c r="B7">
         <v>4.3918269384677373</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>279.59238658451426</v>
+      </c>
       <c r="D7">
         <v>0.06</v>
       </c>
@@ -7059,6 +5268,10 @@
       <c r="B8">
         <v>5.7636347880056054</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>366.92438667500016</v>
+      </c>
       <c r="D8">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7073,6 +5286,10 @@
       <c r="B9">
         <v>7.2406945418788871</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>460.95693110341261</v>
+      </c>
       <c r="D9">
         <v>0.08</v>
       </c>
@@ -7087,6 +5304,10 @@
       <c r="B10">
         <v>8.7903384789377768</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>559.61032814953592</v>
+      </c>
       <c r="D10">
         <v>0.09</v>
       </c>
@@ -7101,6 +5322,10 @@
       <c r="B11">
         <v>10.378150435147576</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>660.69357676201662</v>
+      </c>
       <c r="D11">
         <v>0.1</v>
       </c>
@@ -7115,6 +5340,10 @@
       <c r="B12">
         <v>11.968204689154764</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>761.91957448583253</v>
+      </c>
       <c r="D12">
         <v>0.11</v>
       </c>
@@ -7129,6 +5358,10 @@
       <c r="B13">
         <v>13.523640605008463</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>860.94170035414686</v>
+      </c>
       <c r="D13">
         <v>0.12</v>
       </c>
@@ -7143,6 +5376,10 @@
       <c r="B14">
         <v>15.007264235895653</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>955.39211417160357</v>
+      </c>
       <c r="D14">
         <v>0.13</v>
       </c>
@@ -7157,6 +5394,10 @@
       <c r="B15">
         <v>16.382960993365078</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1042.9716898303041</v>
+      </c>
       <c r="D15">
         <v>0.14000000000000001</v>
       </c>
@@ -7171,6 +5412,10 @@
       <c r="B16">
         <v>17.616572057844493</v>
       </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1121.5058093362054</v>
+      </c>
       <c r="D16">
         <v>0.15</v>
       </c>
@@ -7185,6 +5430,10 @@
       <c r="B17">
         <v>18.677905365555446</v>
       </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1189.0723862123134</v>
+      </c>
       <c r="D17">
         <v>0.16</v>
       </c>
@@ -7199,6 +5448,10 @@
       <c r="B18">
         <v>19.542611259369366</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1244.1212731407859</v>
+      </c>
       <c r="D18">
         <v>0.17</v>
       </c>
@@ -7213,6 +5466,10 @@
       <c r="B19">
         <v>20.193477399157135</v>
       </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1285.5566985161313</v>
+      </c>
       <c r="D19">
         <v>0.18</v>
       </c>
@@ -7227,6 +5484,10 @@
       <c r="B20">
         <v>20.621292319015424</v>
       </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1312.7922422056952</v>
+      </c>
       <c r="D20">
         <v>0.19</v>
       </c>
@@ -7241,6 +5502,10 @@
       <c r="B21">
         <v>20.82531614111133</v>
       </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1325.7808021237213</v>
+      </c>
       <c r="D21">
         <v>0.2</v>
       </c>
@@ -7255,6 +5520,10 @@
       <c r="B22">
         <v>20.818023132256464</v>
       </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1325.3165147600153</v>
+      </c>
       <c r="D22">
         <v>0.21</v>
       </c>
@@ -7269,6 +5538,10 @@
       <c r="B23">
         <v>20.615670074645763</v>
       </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1312.4343190126147</v>
+      </c>
       <c r="D23">
         <v>0.22</v>
       </c>
@@ -7283,6 +5556,10 @@
       <c r="B24">
         <v>20.237887674675193</v>
       </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1288.3839444652401</v>
+      </c>
       <c r="D24">
         <v>0.23</v>
       </c>
@@ -7297,6 +5574,10 @@
       <c r="B25">
         <v>19.713781911561387</v>
       </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1255.0183353042353</v>
+      </c>
       <c r="D25">
         <v>0.24</v>
       </c>
@@ -7311,6 +5592,10 @@
       <c r="B26">
         <v>19.075147972338033</v>
       </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1214.361636002777</v>
+      </c>
       <c r="D26">
         <v>0.25</v>
       </c>
@@ -7325,6 +5610,10 @@
       <c r="B27">
         <v>18.355152534322869</v>
       </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>1168.5253028172858</v>
+      </c>
       <c r="D27">
         <v>0.26</v>
       </c>
@@ -7339,6 +5628,10 @@
       <c r="B28">
         <v>17.586299210263711</v>
       </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>1119.578580002626</v>
+      </c>
       <c r="D28">
         <v>0.27</v>
       </c>
@@ -7353,6 +5646,10 @@
       <c r="B29">
         <v>16.799583979128691</v>
       </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1069.4947328662975</v>
+      </c>
       <c r="D29">
         <v>0.28000000000000003</v>
       </c>
@@ -7367,6 +5664,10 @@
       <c r="B30">
         <v>16.022820278716321</v>
       </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>1020.0444198523052</v>
+      </c>
       <c r="D30">
         <v>0.28999999999999998</v>
       </c>
@@ -7381,6 +5682,10 @@
       <c r="B31">
         <v>15.280191280814073</v>
       </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>972.76718949249562</v>
+      </c>
       <c r="D31">
         <v>0.3</v>
       </c>
@@ -7395,6 +5700,10 @@
       <c r="B32">
         <v>14.591980362445714</v>
       </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>928.95432167324077</v>
+      </c>
       <c r="D32">
         <v>0.31</v>
       </c>
@@ -7409,6 +5718,10 @@
       <c r="B33">
         <v>13.97430083038963</v>
       </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>889.63162136387496</v>
+      </c>
       <c r="D33">
         <v>0.32</v>
       </c>
@@ -7423,6 +5736,10 @@
       <c r="B34">
         <v>13.439233725889716</v>
       </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>855.5681915370634</v>
+      </c>
       <c r="D34">
         <v>0.33</v>
       </c>
@@ -7437,6 +5754,10 @@
       <c r="B35">
         <v>12.994997909819963</v>
       </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>827.28726112667812</v>
+      </c>
       <c r="D35">
         <v>0.34</v>
       </c>
@@ -7451,6 +5772,10 @@
       <c r="B36">
         <v>12.646367651894828</v>
       </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>805.09276958260295</v>
+      </c>
       <c r="D36">
         <v>0.35000000000000003</v>
       </c>
@@ -7465,6 +5790,10 @@
       <c r="B37">
         <v>12.394994008215063</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>789.08982640074078</v>
+      </c>
       <c r="D37">
         <v>0.36</v>
       </c>
@@ -7479,6 +5808,10 @@
       <c r="B38">
         <v>12.240038701615834</v>
       </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>779.22506519930585</v>
+      </c>
       <c r="D38">
         <v>0.37</v>
       </c>
@@ -7493,6 +5826,10 @@
       <c r="B39">
         <v>12.177877276224299</v>
       </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>775.26774595102552</v>
+      </c>
       <c r="D39">
         <v>0.38</v>
       </c>
@@ -7507,6 +5844,10 @@
       <c r="B40">
         <v>12.201371222903196</v>
       </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>776.76341704969911</v>
+      </c>
       <c r="D40">
         <v>0.39</v>
       </c>
@@ -7521,6 +5862,10 @@
       <c r="B41">
         <v>12.303930982040663</v>
       </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>783.29257410131584</v>
+      </c>
       <c r="D41">
         <v>0.4</v>
       </c>
@@ -7535,6 +5880,10 @@
       <c r="B42">
         <v>12.478851134856633</v>
       </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>794.42833688813641</v>
+      </c>
       <c r="D42">
         <v>0.41000000000000003</v>
       </c>
@@ -7549,6 +5898,10 @@
       <c r="B43">
         <v>12.714732462447056</v>
       </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>809.4450085957742</v>
+      </c>
       <c r="D43">
         <v>0.42</v>
       </c>
@@ -7563,6 +5916,10 @@
       <c r="B44">
         <v>13.001526907539271</v>
       </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>827.70291003086345</v>
+      </c>
       <c r="D44">
         <v>0.43</v>
       </c>
@@ -7577,6 +5934,10 @@
       <c r="B45">
         <v>13.327872559189048</v>
       </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>848.47871947750662</v>
+      </c>
       <c r="D45">
         <v>0.44</v>
       </c>
@@ -7591,6 +5952,10 @@
       <c r="B46">
         <v>13.682128452561914</v>
       </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>871.03135009739742</v>
+      </c>
       <c r="D46">
         <v>0.45</v>
       </c>
@@ -7605,6 +5970,10 @@
       <c r="B47">
         <v>14.052534928996886</v>
       </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>894.6121587685484</v>
+      </c>
       <c r="D47">
         <v>0.46</v>
       </c>
@@ -7619,6 +5988,10 @@
       <c r="B48">
         <v>14.427673251046617</v>
       </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>918.49420608751393</v>
+      </c>
       <c r="D48">
         <v>0.47000000000000003</v>
       </c>
@@ -7633,6 +6006,10 @@
       <c r="B49">
         <v>14.796698593247461</v>
       </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>941.98708902249098</v>
+      </c>
       <c r="D49">
         <v>0.48</v>
       </c>
@@ -7647,6 +6024,10 @@
       <c r="B50">
         <v>15.149449761065339</v>
       </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>964.44392583835258</v>
+      </c>
       <c r="D50">
         <v>0.49</v>
       </c>
@@ -7661,6 +6042,10 @@
       <c r="B51">
         <v>15.476794169430688</v>
       </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>985.28331811228759</v>
+      </c>
       <c r="D51">
         <v>0.5</v>
       </c>
@@ -7675,6 +6060,10 @@
       <c r="B52">
         <v>15.770808384593517</v>
       </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>1004.0008443852669</v>
+      </c>
       <c r="D52">
         <v>0.51</v>
       </c>
@@ -7689,6 +6078,10 @@
       <c r="B53">
         <v>16.025127449519378</v>
       </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>1020.1912989074506</v>
+      </c>
       <c r="D53">
         <v>0.52</v>
       </c>
@@ -7703,6 +6096,10 @@
       <c r="B54">
         <v>16.235030492351118</v>
       </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>1033.5541416421311</v>
+      </c>
       <c r="D54">
         <v>0.53</v>
       </c>
@@ -7717,6 +6114,10 @@
       <c r="B55">
         <v>16.396248191788981</v>
       </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>1043.8175791539068</v>
+      </c>
       <c r="D55">
         <v>0.54</v>
       </c>
@@ -7731,6 +6132,10 @@
       <c r="B56">
         <v>16.509897622129916</v>
       </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>1051.0527266012421</v>
+      </c>
       <c r="D56">
         <v>0.55000000000000004</v>
       </c>
@@ -7745,6 +6150,10 @@
       <c r="B57">
         <v>16.57268122441609</v>
       </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>1055.0496548608262</v>
+      </c>
       <c r="D57">
         <v>0.56000000000000005</v>
       </c>
@@ -7759,6 +6168,10 @@
       <c r="B58">
         <v>16.585591109102673</v>
       </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>1055.8715236458725</v>
+      </c>
       <c r="D58">
         <v>0.57000000000000006</v>
       </c>
@@ -7773,6 +6186,10 @@
       <c r="B59">
         <v>16.552464136872995</v>
       </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>1053.7625950938641</v>
+      </c>
       <c r="D59">
         <v>0.57999999999999996</v>
       </c>
@@ -7787,6 +6204,10 @@
       <c r="B60">
         <v>16.476871630041611</v>
       </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>1048.950226644695</v>
+      </c>
       <c r="D60">
         <v>0.59</v>
       </c>
@@ -7801,6 +6222,10 @@
       <c r="B61">
         <v>16.367925350530879</v>
       </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>1042.0144910784534</v>
+      </c>
       <c r="D61">
         <v>0.6</v>
       </c>
@@ -7815,6 +6240,10 @@
       <c r="B62">
         <v>16.232484950282085</v>
       </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>1033.3920874008772</v>
+      </c>
       <c r="D62">
         <v>0.61</v>
       </c>
@@ -7829,6 +6258,10 @@
       <c r="B63">
         <v>16.074394044956879</v>
       </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>1023.3277077847254</v>
+      </c>
       <c r="D63">
         <v>0.62</v>
       </c>
@@ -7843,6 +6276,10 @@
       <c r="B64">
         <v>15.90276995563323</v>
       </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>1012.4017789169238</v>
+      </c>
       <c r="D64">
         <v>0.63</v>
       </c>
@@ -7857,6 +6294,10 @@
       <c r="B65">
         <v>15.72215957835432</v>
       </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>1000.9037651898717</v>
+      </c>
       <c r="D65">
         <v>0.64</v>
       </c>
@@ -7871,6 +6312,10 @@
       <c r="B66">
         <v>15.540007514400816</v>
       </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>989.30760464083517</v>
+      </c>
       <c r="D66">
         <v>0.65</v>
       </c>
@@ -7885,6 +6330,10 @@
       <c r="B67">
         <v>15.361680205250927</v>
       </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="1">B67/(2*PI())*400</f>
+        <v>977.95493554504253</v>
+      </c>
       <c r="D67">
         <v>0.66</v>
       </c>
@@ -7899,6 +6348,10 @@
       <c r="B68">
         <v>15.191791890075635</v>
       </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>967.13950949156185</v>
+      </c>
       <c r="D68">
         <v>0.67</v>
       </c>
@@ -7913,6 +6366,10 @@
       <c r="B69">
         <v>15.036030399929155</v>
       </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>957.22342505149311</v>
+      </c>
       <c r="D69">
         <v>0.68</v>
       </c>
@@ -7927,6 +6384,10 @@
       <c r="B70">
         <v>14.896253781241004</v>
       </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>948.32496913433704</v>
+      </c>
       <c r="D70">
         <v>0.69000000000000006</v>
       </c>
@@ -7941,6 +6402,10 @@
       <c r="B71">
         <v>14.776945179268109</v>
       </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>940.72954763138932</v>
+      </c>
       <c r="D71">
         <v>0.70000000000000007</v>
       </c>
@@ -7955,6 +6420,10 @@
       <c r="B72">
         <v>14.679978758745065</v>
       </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>934.55647357532121</v>
+      </c>
       <c r="D72">
         <v>0.71</v>
       </c>
@@ -7969,6 +6438,10 @@
       <c r="B73">
         <v>14.603635640936819</v>
       </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>929.69631974722961</v>
+      </c>
       <c r="D73">
         <v>0.72</v>
       </c>
@@ -7983,6 +6456,10 @@
       <c r="B74">
         <v>14.550348187074835</v>
       </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>926.30393507246322</v>
+      </c>
       <c r="D74">
         <v>0.73</v>
       </c>
@@ -7997,6 +6474,10 @@
       <c r="B75">
         <v>14.523368224649493</v>
       </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>924.58633731869247</v>
+      </c>
       <c r="D75">
         <v>0.74</v>
       </c>
@@ -8011,6 +6492,10 @@
       <c r="B76">
         <v>14.520691216351318</v>
       </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>924.41591367735145</v>
+      </c>
       <c r="D76">
         <v>0.75</v>
       </c>
@@ -8025,6 +6510,10 @@
       <c r="B77">
         <v>14.540447515280935</v>
       </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>925.67363873009128</v>
+      </c>
       <c r="D77">
         <v>0.76</v>
       </c>
@@ -8039,6 +6528,10 @@
       <c r="B78">
         <v>14.580911291058044</v>
       </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>928.2496427025269</v>
+      </c>
       <c r="D78">
         <v>0.77</v>
       </c>
@@ -8053,6 +6546,10 @@
       <c r="B79">
         <v>14.638693638981399</v>
       </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>931.92818122071003</v>
+      </c>
       <c r="D79">
         <v>0.78</v>
       </c>
@@ -8067,6 +6564,10 @@
       <c r="B80">
         <v>14.705822921409338</v>
       </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>936.20176407055737</v>
+      </c>
       <c r="D80">
         <v>0.79</v>
       </c>
@@ -8081,6 +6582,10 @@
       <c r="B81">
         <v>14.780951538219663</v>
       </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>940.98460036376537</v>
+      </c>
       <c r="D81">
         <v>0.8</v>
       </c>
@@ -8095,6 +6600,10 @@
       <c r="B82">
         <v>14.863464072611235</v>
       </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>946.2375114499489</v>
+      </c>
       <c r="D82">
         <v>0.81</v>
       </c>
@@ -8109,6 +6618,10 @@
       <c r="B83">
         <v>14.952009407649568</v>
       </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>951.87448255358026</v>
+      </c>
       <c r="D83">
         <v>0.82000000000000006</v>
       </c>
@@ -8123,6 +6636,10 @@
       <c r="B84">
         <v>15.039259013491062</v>
       </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>957.42896497457753</v>
+      </c>
       <c r="D84">
         <v>0.83000000000000007</v>
       </c>
@@ -8137,6 +6654,10 @@
       <c r="B85">
         <v>15.123718089969843</v>
       </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>962.80579677880735</v>
+      </c>
       <c r="D85">
         <v>0.84</v>
       </c>
@@ -8151,6 +6672,10 @@
       <c r="B86">
         <v>15.20560129954646</v>
       </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>968.01864380294683</v>
+      </c>
       <c r="D86">
         <v>0.85</v>
       </c>
@@ -8165,6 +6690,10 @@
       <c r="B87">
         <v>15.282832049925764</v>
       </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>972.9353060755717</v>
+      </c>
       <c r="D87">
         <v>0.86</v>
       </c>
@@ -8179,6 +6708,10 @@
       <c r="B88">
         <v>15.349067201484939</v>
       </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>977.15196678640518</v>
+      </c>
       <c r="D88">
         <v>0.87</v>
       </c>
@@ -8193,6 +6726,10 @@
       <c r="B89">
         <v>15.404705917376836</v>
       </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>980.69403745099737</v>
+      </c>
       <c r="D89">
         <v>0.88</v>
       </c>
@@ -8207,6 +6744,10 @@
       <c r="B90">
         <v>15.45056330181216</v>
       </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>983.61340921505644</v>
+      </c>
       <c r="D90">
         <v>0.89</v>
       </c>
@@ -8221,6 +6762,10 @@
       <c r="B91">
         <v>15.487391923300708</v>
       </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>985.95799207792152</v>
+      </c>
       <c r="D91">
         <v>0.9</v>
       </c>
@@ -8235,6 +6780,10 @@
       <c r="B92">
         <v>15.515886340330647</v>
       </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>987.77200300625623</v>
+      </c>
       <c r="D92">
         <v>0.91</v>
       </c>
@@ -8249,6 +6798,10 @@
       <c r="B93">
         <v>15.536687712822438</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>989.09625950832185</v>
+      </c>
       <c r="D93">
         <v>0.92</v>
       </c>
@@ -8263,6 +6816,10 @@
       <c r="B94">
         <v>15.548776727861858</v>
       </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>989.86587010857625</v>
+      </c>
       <c r="D94">
         <v>0.93</v>
       </c>
@@ -8277,6 +6834,10 @@
       <c r="B95">
         <v>15.545683742759564</v>
       </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>989.66896456140034</v>
+      </c>
       <c r="D95">
         <v>0.94000000000000006</v>
       </c>
@@ -8291,6 +6852,10 @@
       <c r="B96">
         <v>15.530642033242666</v>
       </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>988.71137959253372</v>
+      </c>
       <c r="D96">
         <v>0.95000000000000007</v>
       </c>
@@ -8305,6 +6870,10 @@
       <c r="B97">
         <v>15.511014724909927</v>
       </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>987.46186633623608</v>
+      </c>
       <c r="D97">
         <v>0.96</v>
       </c>
@@ -8319,6 +6888,10 @@
       <c r="B98">
         <v>15.487396427586498</v>
       </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>985.95827882966103</v>
+      </c>
       <c r="D98">
         <v>0.97</v>
       </c>
@@ -8333,6 +6906,10 @@
       <c r="B99">
         <v>15.460094142668117</v>
       </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>984.22016138867536</v>
+      </c>
       <c r="D99">
         <v>0.98</v>
       </c>
@@ -8347,6 +6924,10 @@
       <c r="B100">
         <v>15.429391297672446</v>
       </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>982.26555756945743</v>
+      </c>
       <c r="D100">
         <v>0.99</v>
       </c>
@@ -8360,6 +6941,10 @@
       </c>
       <c r="B101">
         <v>15.39554951068156</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>980.11112249639234</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -8375,6 +6960,10 @@
       <c r="B102">
         <v>15.358810235836316</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>977.77222761749942</v>
+      </c>
       <c r="D102">
         <v>1.01</v>
       </c>
@@ -8389,6 +6978,10 @@
       <c r="B103">
         <v>15.319396403689357</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>975.26306513254633</v>
+      </c>
       <c r="D103">
         <v>1.02</v>
       </c>
@@ -8403,6 +6996,10 @@
       <c r="B104">
         <v>15.277513760536923</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>972.59673325756091</v>
+      </c>
       <c r="D104">
         <v>1.03</v>
       </c>
@@ -8417,6 +7014,10 @@
       <c r="B105">
         <v>15.233352234994832</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>969.78532322375963</v>
+      </c>
       <c r="D105">
         <v>1.04</v>
       </c>
@@ -8431,6 +7032,10 @@
       <c r="B106">
         <v>15.190676786493215</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>967.06851979268129</v>
+      </c>
       <c r="D106">
         <v>1.05</v>
       </c>
@@ -8445,6 +7050,10 @@
       <c r="B107">
         <v>15.15512494398266</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>964.80521920404954</v>
+      </c>
       <c r="D107">
         <v>1.06</v>
       </c>
@@ -8459,6 +7068,10 @@
       <c r="B108">
         <v>15.126229760871968</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>962.96569471460475</v>
+      </c>
       <c r="D108">
         <v>1.07</v>
       </c>
@@ -8473,6 +7086,10 @@
       <c r="B109">
         <v>15.103479132113911</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>961.5173447044873</v>
+      </c>
       <c r="D109">
         <v>1.08</v>
       </c>
@@ -8487,6 +7104,10 @@
       <c r="B110">
         <v>15.086400352027949</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>960.43007579542325</v>
+      </c>
       <c r="D110">
         <v>1.0900000000000001</v>
       </c>
@@ -8501,6 +7122,10 @@
       <c r="B111">
         <v>15.074557084191108</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>959.67610994798542</v>
+      </c>
       <c r="D111">
         <v>1.1000000000000001</v>
       </c>
@@ -8515,6 +7140,10 @@
       <c r="B112">
         <v>15.067546553433921</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>959.22980569850381</v>
+      </c>
       <c r="D112">
         <v>1.1100000000000001</v>
       </c>
@@ -8529,6 +7158,10 @@
       <c r="B113">
         <v>15.06499697667194</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>959.06749460071921</v>
+      </c>
       <c r="D113">
         <v>1.1200000000000001</v>
       </c>
@@ -8543,6 +7176,10 @@
       <c r="B114">
         <v>15.066565166259194</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>959.16732865052586</v>
+      </c>
       <c r="D114">
         <v>1.1300000000000001</v>
       </c>
@@ -8557,6 +7194,10 @@
       <c r="B115">
         <v>15.071934342689216</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>959.50914103819423</v>
+      </c>
       <c r="D115">
         <v>1.1400000000000001</v>
       </c>
@@ -8571,6 +7212,10 @@
       <c r="B116">
         <v>15.080812089719792</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>960.0743159675684</v>
+      </c>
       <c r="D116">
         <v>1.1500000000000001</v>
       </c>
@@ -8585,6 +7230,10 @@
       <c r="B117">
         <v>15.092928492969694</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>960.84567015545497</v>
+      </c>
       <c r="D117">
         <v>1.1599999999999999</v>
       </c>
@@ -8599,6 +7248,10 @@
       <c r="B118">
         <v>15.108034397546287</v>
       </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>961.80734190875069</v>
+      </c>
       <c r="D118">
         <v>1.17</v>
       </c>
@@ -8613,6 +7266,10 @@
       <c r="B119">
         <v>15.125899823356919</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>962.94469024003217</v>
+      </c>
       <c r="D119">
         <v>1.18</v>
       </c>
@@ -8627,6 +7284,10 @@
       <c r="B120">
         <v>15.146312473533879</v>
       </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>964.24419991093964</v>
+      </c>
       <c r="D120">
         <v>1.19</v>
       </c>
@@ -8641,6 +7302,10 @@
       <c r="B121">
         <v>15.169076393178527</v>
       </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>965.69339604517666</v>
+      </c>
       <c r="D121">
         <v>1.2</v>
       </c>
@@ -8655,6 +7320,10 @@
       <c r="B122">
         <v>15.194010672328702</v>
       </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>967.28076155684994</v>
+      </c>
       <c r="D122">
         <v>1.21</v>
       </c>
@@ -8669,6 +7338,10 @@
       <c r="B123">
         <v>15.220948402070857</v>
       </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>968.99567069450507</v>
+      </c>
       <c r="D123">
         <v>1.22</v>
       </c>
@@ -8683,6 +7356,10 @@
       <c r="B124">
         <v>15.247332035462483</v>
       </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>970.67530496290578</v>
+      </c>
       <c r="D124">
         <v>1.23</v>
       </c>
@@ -8697,6 +7374,10 @@
       <c r="B125">
         <v>15.266578276281653</v>
       </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>971.90055870782896</v>
+      </c>
       <c r="D125">
         <v>1.24</v>
       </c>
@@ -8711,6 +7392,10 @@
       <c r="B126">
         <v>15.278842938817386</v>
       </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>972.6813513749953</v>
+      </c>
       <c r="D126">
         <v>1.25</v>
       </c>
@@ -8725,6 +7410,10 @@
       <c r="B127">
         <v>15.284663128123004</v>
       </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>973.05187613408305</v>
+      </c>
       <c r="D127">
         <v>1.26</v>
       </c>
@@ -8739,6 +7428,10 @@
       <c r="B128">
         <v>15.284534620823154</v>
       </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>973.04369510528534</v>
+      </c>
       <c r="D128">
         <v>1.27</v>
       </c>
@@ -8753,6 +7446,10 @@
       <c r="B129">
         <v>15.278915080307819</v>
       </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>972.68594404491694</v>
+      </c>
       <c r="D129">
         <v>1.28</v>
       </c>
@@ -8767,6 +7464,10 @@
       <c r="B130">
         <v>15.26822685315361</v>
       </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>972.00551037112439</v>
+      </c>
       <c r="D130">
         <v>1.29</v>
       </c>
@@ -8781,6 +7482,10 @@
       <c r="B131">
         <v>15.252859960314975</v>
       </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="2">B131/(2*PI())*400</f>
+        <v>971.02722358903156</v>
+      </c>
       <c r="D131">
         <v>1.3</v>
       </c>
@@ -8795,6 +7500,10 @@
       <c r="B132">
         <v>15.233174303319061</v>
       </c>
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>969.77399574146705</v>
+      </c>
       <c r="D132">
         <v>1.31</v>
       </c>
@@ -8809,6 +7518,10 @@
       <c r="B133">
         <v>15.212492463605621</v>
       </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>968.4573489324157</v>
+      </c>
       <c r="D133">
         <v>1.32</v>
       </c>
@@ -8823,6 +7536,10 @@
       <c r="B134">
         <v>15.197120239237508</v>
       </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>967.47872273461462</v>
+      </c>
       <c r="D134">
         <v>1.33</v>
       </c>
@@ -8837,6 +7554,10 @@
       <c r="B135">
         <v>15.186852344409671</v>
       </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>966.8250482478154</v>
+      </c>
       <c r="D135">
         <v>1.34</v>
       </c>
@@ -8851,6 +7572,10 @@
       <c r="B136">
         <v>15.181295955073022</v>
       </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>966.47131751634697</v>
+      </c>
       <c r="D136">
         <v>1.35</v>
       </c>
@@ -8865,6 +7590,10 @@
       <c r="B137">
         <v>15.180088637363822</v>
       </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>966.39445728382645</v>
+      </c>
       <c r="D137">
         <v>1.36</v>
       </c>
@@ -8879,6 +7608,10 @@
       <c r="B138">
         <v>15.182895814329738</v>
       </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>966.57316771993021</v>
+      </c>
       <c r="D138">
         <v>1.37</v>
       </c>
@@ -8893,6 +7626,10 @@
       <c r="B139">
         <v>15.18940869417602</v>
       </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>966.98779052844998</v>
+      </c>
       <c r="D139">
         <v>1.3800000000000001</v>
       </c>
@@ -8907,6 +7644,10 @@
       <c r="B140">
         <v>15.199342144436665</v>
       </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>967.62017361282562</v>
+      </c>
       <c r="D140">
         <v>1.3900000000000001</v>
       </c>
@@ -8921,6 +7662,10 @@
       <c r="B141">
         <v>15.212433026452503</v>
       </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>968.45356504572692</v>
+      </c>
       <c r="D141">
         <v>1.4000000000000001</v>
       </c>
@@ -8935,6 +7680,10 @@
       <c r="B142">
         <v>15.228438438073058</v>
       </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>969.4725011959797</v>
+      </c>
       <c r="D142">
         <v>1.41</v>
       </c>
@@ -8949,6 +7698,10 @@
       <c r="B143">
         <v>15.242649949114126</v>
       </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>970.3772340883761</v>
+      </c>
       <c r="D143">
         <v>1.42</v>
       </c>
@@ -8963,6 +7716,10 @@
       <c r="B144">
         <v>15.250272300792437</v>
       </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>970.86248806741116</v>
+      </c>
       <c r="D144">
         <v>1.43</v>
       </c>
@@ -8977,6 +7734,10 @@
       <c r="B145">
         <v>15.251807326352084</v>
       </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>970.96021082964739</v>
+      </c>
       <c r="D145">
         <v>1.44</v>
       </c>
@@ -8991,6 +7752,10 @@
       <c r="B146">
         <v>15.247723337299943</v>
       </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>970.70021601157475</v>
+      </c>
       <c r="D146">
         <v>1.45</v>
       </c>
@@ -9005,6 +7770,10 @@
       <c r="B147">
         <v>15.238452540020722</v>
       </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>970.11001872621841</v>
+      </c>
       <c r="D147">
         <v>1.46</v>
       </c>
@@ -9019,6 +7788,10 @@
       <c r="B148">
         <v>15.224756163555645</v>
       </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>969.23808031947272</v>
+      </c>
       <c r="D148">
         <v>1.47</v>
       </c>
@@ -9033,6 +7806,10 @@
       <c r="B149">
         <v>15.213591838933475</v>
       </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>968.5273373395122</v>
+      </c>
       <c r="D149">
         <v>1.48</v>
       </c>
@@ -9047,6 +7824,10 @@
       <c r="B150">
         <v>15.207208013008518</v>
       </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>968.12093035879411</v>
+      </c>
       <c r="D150">
         <v>1.49</v>
       </c>
@@ -9061,6 +7842,10 @@
       <c r="B151">
         <v>15.205236954818849</v>
       </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>967.99544889719118</v>
+      </c>
       <c r="D151">
         <v>1.5</v>
       </c>
@@ -9075,6 +7860,10 @@
       <c r="B152">
         <v>15.207339091009711</v>
       </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>968.1292750435224</v>
+      </c>
       <c r="D152">
         <v>1.51</v>
       </c>
@@ -9089,6 +7878,10 @@
       <c r="B153">
         <v>15.213201234610496</v>
       </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>968.50247069599413</v>
+      </c>
       <c r="D153">
         <v>1.52</v>
       </c>
@@ -9103,6 +7896,10 @@
       <c r="B154">
         <v>15.222533978860643</v>
       </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>969.09661164800355</v>
+      </c>
       <c r="D154">
         <v>1.53</v>
       </c>
@@ -9117,6 +7914,10 @@
       <c r="B155">
         <v>15.234107562197773</v>
       </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>969.83340884695951</v>
+      </c>
       <c r="D155">
         <v>1.54</v>
       </c>
@@ -9131,6 +7932,10 @@
       <c r="B156">
         <v>15.240702137611185</v>
       </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>970.25323255681428</v>
+      </c>
       <c r="D156">
         <v>1.55</v>
       </c>
@@ -9145,6 +7950,10 @@
       <c r="B157">
         <v>15.241288411080609</v>
       </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>970.29055588507924</v>
+      </c>
       <c r="D157">
         <v>1.56</v>
       </c>
@@ -9159,6 +7968,10 @@
       <c r="B158">
         <v>15.236328705648598</v>
       </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>969.97481123076557</v>
+      </c>
       <c r="D158">
         <v>1.57</v>
       </c>
@@ -9173,6 +7986,10 @@
       <c r="B159">
         <v>15.226456251503892</v>
       </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>969.34631127973444</v>
+      </c>
       <c r="D159">
         <v>1.58</v>
       </c>
@@ -9187,6 +8004,10 @@
       <c r="B160">
         <v>15.218346184339826</v>
       </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>968.83000836854706</v>
+      </c>
       <c r="D160">
         <v>1.59</v>
       </c>
@@ -9201,6 +8022,10 @@
       <c r="B161">
         <v>15.214781658673264</v>
       </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>968.60308361670263</v>
+      </c>
       <c r="D161">
         <v>1.6</v>
       </c>
@@ -9215,6 +8040,10 @@
       <c r="B162">
         <v>15.21541298319635</v>
       </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>968.64327498412024</v>
+      </c>
       <c r="D162">
         <v>1.61</v>
       </c>
@@ -9229,6 +8058,10 @@
       <c r="B163">
         <v>15.219917345377125</v>
       </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>968.93003158673889</v>
+      </c>
       <c r="D163">
         <v>1.62</v>
       </c>
@@ -9243,6 +8076,10 @@
       <c r="B164">
         <v>15.227996845628724</v>
       </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>969.4443885478405</v>
+      </c>
       <c r="D164">
         <v>1.6300000000000001</v>
       </c>
@@ -9257,6 +8094,10 @@
       <c r="B165">
         <v>15.23556207866895</v>
       </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>969.92600624143824</v>
+      </c>
       <c r="D165">
         <v>1.6400000000000001</v>
       </c>
@@ -9271,6 +8112,10 @@
       <c r="B166">
         <v>15.237097460638351</v>
       </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>970.02375169342395</v>
+      </c>
       <c r="D166">
         <v>1.6500000000000001</v>
       </c>
@@ -9285,6 +8130,10 @@
       <c r="B167">
         <v>15.233013753884793</v>
       </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>969.76377484703721</v>
+      </c>
       <c r="D167">
         <v>1.6600000000000001</v>
       </c>
@@ -9299,6 +8148,10 @@
       <c r="B168">
         <v>15.224794783852879</v>
       </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>969.24053896395606</v>
+      </c>
       <c r="D168">
         <v>1.67</v>
       </c>
@@ -9313,6 +8166,10 @@
       <c r="B169">
         <v>15.219819446981994</v>
       </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>968.92379918133645</v>
+      </c>
       <c r="D169">
         <v>1.68</v>
       </c>
@@ -9327,6 +8184,10 @@
       <c r="B170">
         <v>15.219148478631585</v>
       </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>968.88108400948613</v>
+      </c>
       <c r="D170">
         <v>1.69</v>
       </c>
@@ -9341,6 +8202,10 @@
       <c r="B171">
         <v>15.222450762438086</v>
       </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>969.09131392600511</v>
+      </c>
       <c r="D171">
         <v>1.7</v>
       </c>
@@ -9355,6 +8220,10 @@
       <c r="B172">
         <v>15.229408454553063</v>
       </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>969.53425436304906</v>
+      </c>
       <c r="D172">
         <v>1.71</v>
       </c>
@@ -9369,6 +8238,10 @@
       <c r="B173">
         <v>15.234536841182512</v>
       </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>969.86073759591443</v>
+      </c>
       <c r="D173">
         <v>1.72</v>
       </c>
@@ -9383,6 +8256,10 @@
       <c r="B174">
         <v>15.233769810576003</v>
       </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>969.81190691090285</v>
+      </c>
       <c r="D174">
         <v>1.73</v>
       </c>
@@ -9397,6 +8274,10 @@
       <c r="B175">
         <v>15.227663337245739</v>
       </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>969.42315674475469</v>
+      </c>
       <c r="D175">
         <v>1.74</v>
       </c>
@@ -9411,6 +8292,10 @@
       <c r="B176">
         <v>15.222557232779707</v>
       </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>969.09809203846964</v>
+      </c>
       <c r="D176">
         <v>1.75</v>
       </c>
@@ -9425,6 +8310,10 @@
       <c r="B177">
         <v>15.221765629428926</v>
       </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>969.04769700397162</v>
+      </c>
       <c r="D177">
         <v>1.76</v>
       </c>
@@ -9439,6 +8328,10 @@
       <c r="B178">
         <v>15.224956522976905</v>
       </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>969.25083559638801</v>
+      </c>
       <c r="D178">
         <v>1.77</v>
       </c>
@@ -9453,6 +8346,10 @@
       <c r="B179">
         <v>15.231209451732191</v>
       </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>969.64890940447003</v>
+      </c>
       <c r="D179">
         <v>1.78</v>
       </c>
@@ -9467,6 +8364,10 @@
       <c r="B180">
         <v>15.23339416585913</v>
       </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>969.78799262548807</v>
+      </c>
       <c r="D180">
         <v>1.79</v>
       </c>
@@ -9481,6 +8382,10 @@
       <c r="B181">
         <v>15.229909918573403</v>
       </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>969.56617855409706</v>
+      </c>
       <c r="D181">
         <v>1.8</v>
       </c>
@@ -9495,6 +8400,10 @@
       <c r="B182">
         <v>15.224487430560218</v>
       </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>969.22097224563504</v>
+      </c>
       <c r="D182">
         <v>1.81</v>
       </c>
@@ -9509,6 +8418,10 @@
       <c r="B183">
         <v>15.223269689393481</v>
       </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>969.1434484351978</v>
+      </c>
       <c r="D183">
         <v>1.82</v>
       </c>
@@ -9523,6 +8436,10 @@
       <c r="B184">
         <v>15.226067243243804</v>
       </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>969.32154624473571</v>
+      </c>
       <c r="D184">
         <v>1.83</v>
       </c>
@@ -9537,6 +8454,10 @@
       <c r="B185">
         <v>15.231434075005696</v>
       </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>969.66320936619491</v>
+      </c>
       <c r="D185">
         <v>1.84</v>
       </c>
@@ -9551,6 +8472,10 @@
       <c r="B186">
         <v>15.23210672614419</v>
       </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>969.70603166766193</v>
+      </c>
       <c r="D186">
         <v>1.85</v>
       </c>
@@ -9565,6 +8490,10 @@
       <c r="B187">
         <v>15.227461295790819</v>
       </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>969.41029438625071</v>
+      </c>
       <c r="D187">
         <v>1.86</v>
       </c>
@@ -9579,6 +8508,10 @@
       <c r="B188">
         <v>15.224276146656271</v>
       </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>969.20752149455143</v>
+      </c>
       <c r="D188">
         <v>1.87</v>
       </c>
@@ -9593,6 +8526,10 @@
       <c r="B189">
         <v>15.225257601458733</v>
       </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>969.27000284784469</v>
+      </c>
       <c r="D189">
         <v>1.8800000000000001</v>
       </c>
@@ -9607,6 +8544,10 @@
       <c r="B190">
         <v>15.229925048901981</v>
       </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>969.56714178073048</v>
+      </c>
       <c r="D190">
         <v>1.8900000000000001</v>
       </c>
@@ -9621,6 +8562,10 @@
       <c r="B191">
         <v>15.231837429163683</v>
       </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>969.68888768941883</v>
+      </c>
       <c r="D191">
         <v>1.9000000000000001</v>
       </c>
@@ -9635,6 +8580,10 @@
       <c r="B192">
         <v>15.228154205301228</v>
       </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>969.45440637572949</v>
+      </c>
       <c r="D192">
         <v>1.9100000000000001</v>
       </c>
@@ -9649,6 +8598,10 @@
       <c r="B193">
         <v>15.224948353044356</v>
       </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>969.25031548232801</v>
+      </c>
       <c r="D193">
         <v>1.92</v>
       </c>
@@ -9663,6 +8616,10 @@
       <c r="B194">
         <v>15.225910813056473</v>
       </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>969.3115875897106</v>
+      </c>
       <c r="D194">
         <v>1.93</v>
       </c>
@@ -9677,6 +8634,10 @@
       <c r="B195">
         <v>15.230344118836051</v>
       </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="3">B195/(2*PI())*400</f>
+        <v>969.59382060133385</v>
+      </c>
       <c r="D195">
         <v>1.94</v>
       </c>
@@ -9691,6 +8652,10 @@
       <c r="B196">
         <v>15.231339693002605</v>
       </c>
+      <c r="C196">
+        <f t="shared" si="3"/>
+        <v>969.65720082126245</v>
+      </c>
       <c r="D196">
         <v>1.95</v>
       </c>
@@ -9705,6 +8670,10 @@
       <c r="B197">
         <v>15.227250648211026</v>
       </c>
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>969.39688414482089</v>
+      </c>
       <c r="D197">
         <v>1.96</v>
       </c>
@@ -9719,6 +8688,10 @@
       <c r="B198">
         <v>15.225254509855882</v>
       </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>969.26980603029426</v>
+      </c>
       <c r="D198">
         <v>1.97</v>
       </c>
@@ -9733,6 +8706,10 @@
       <c r="B199">
         <v>15.22733357475418</v>
       </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>969.40216341252358</v>
+      </c>
       <c r="D199">
         <v>1.98</v>
       </c>
@@ -9747,6 +8724,10 @@
       <c r="B200">
         <v>15.231125690448708</v>
       </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>969.64357699554785</v>
+      </c>
       <c r="D200">
         <v>1.99</v>
       </c>
@@ -9760,6 +8741,10 @@
       </c>
       <c r="B201">
         <v>15.229679287959158</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>969.55149615318282</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -9775,6 +8760,10 @@
       <c r="B202">
         <v>15.226015306397844</v>
       </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>969.31823984243056</v>
+      </c>
       <c r="D202">
         <v>2.0100000000000002</v>
       </c>
@@ -9789,6 +8778,10 @@
       <c r="B203">
         <v>15.226394977872253</v>
       </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>969.34241047919181</v>
+      </c>
       <c r="D203">
         <v>2.02</v>
       </c>
@@ -9803,6 +8796,10 @@
       <c r="B204">
         <v>15.23019718954221</v>
       </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>969.5844667919738</v>
+      </c>
       <c r="D204">
         <v>2.0300000000000002</v>
       </c>
@@ -9817,6 +8814,10 @@
       <c r="B205">
         <v>15.230396841080823</v>
       </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>969.59717700368037</v>
+      </c>
       <c r="D205">
         <v>2.04</v>
       </c>
@@ -9831,6 +8832,10 @@
       <c r="B206">
         <v>15.226704330127804</v>
       </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>969.36210445544282</v>
+      </c>
       <c r="D206">
         <v>2.0499999999999998</v>
       </c>
@@ -9845,6 +8850,10 @@
       <c r="B207">
         <v>15.22640909503256</v>
       </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>969.34330920552986</v>
+      </c>
       <c r="D207">
         <v>2.06</v>
       </c>
@@ -9859,6 +8868,10 @@
       <c r="B208">
         <v>15.229827566929172</v>
       </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>969.56093588559645</v>
+      </c>
       <c r="D208">
         <v>2.0699999999999998</v>
       </c>
@@ -9873,6 +8886,10 @@
       <c r="B209">
         <v>15.23031517206346</v>
       </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>969.59197779255601</v>
+      </c>
       <c r="D209">
         <v>2.08</v>
       </c>
@@ -9887,6 +8904,10 @@
       <c r="B210">
         <v>15.226847631464031</v>
       </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>969.37122730184774</v>
+      </c>
       <c r="D210">
         <v>2.09</v>
       </c>
@@ -9901,6 +8922,10 @@
       <c r="B211">
         <v>15.226731261509329</v>
       </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>969.36381896044031</v>
+      </c>
       <c r="D211">
         <v>2.1</v>
       </c>
@@ -9915,6 +8940,10 @@
       <c r="B212">
         <v>15.230071239436631</v>
       </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>969.57644855921967</v>
+      </c>
       <c r="D212">
         <v>2.11</v>
       </c>
@@ -9929,6 +8958,10 @@
       <c r="B213">
         <v>15.229835530272961</v>
       </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>969.56144284780748</v>
+      </c>
       <c r="D213">
         <v>2.12</v>
       </c>
@@ -9943,6 +8976,10 @@
       <c r="B214">
         <v>15.226575299849831</v>
       </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>969.35389013282349</v>
+      </c>
       <c r="D214">
         <v>2.13</v>
       </c>
@@ -9957,6 +8994,10 @@
       <c r="B215">
         <v>15.227116823609965</v>
       </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>969.38836460611435</v>
+      </c>
       <c r="D215">
         <v>2.14</v>
       </c>
@@ -9971,6 +9012,10 @@
       <c r="B216">
         <v>15.230407062914885</v>
       </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>969.59782774584778</v>
+      </c>
       <c r="D216">
         <v>2.15</v>
       </c>
@@ -9985,6 +9030,10 @@
       <c r="B217">
         <v>15.229168824238551</v>
       </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>969.51899902342143</v>
+      </c>
       <c r="D217">
         <v>2.16</v>
       </c>
@@ -9999,6 +9048,10 @@
       <c r="B218">
         <v>15.22656714746471</v>
       </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>969.35337113586775</v>
+      </c>
       <c r="D218">
         <v>2.17</v>
       </c>
@@ -10013,6 +9066,10 @@
       <c r="B219">
         <v>15.228056899729316</v>
       </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>969.4482117106254</v>
+      </c>
       <c r="D219">
         <v>2.1800000000000002</v>
       </c>
@@ -10027,6 +9084,10 @@
       <c r="B220">
         <v>15.23046295474607</v>
       </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>969.60138593033241</v>
+      </c>
       <c r="D220">
         <v>2.19</v>
       </c>
@@ -10041,6 +9102,10 @@
       <c r="B221">
         <v>15.227798215780291</v>
       </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>969.43174337895107</v>
+      </c>
       <c r="D221">
         <v>2.2000000000000002</v>
       </c>
@@ -10055,6 +9120,10 @@
       <c r="B222">
         <v>15.226875897766934</v>
       </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>969.37302679057973</v>
+      </c>
       <c r="D222">
         <v>2.21</v>
       </c>
@@ -10069,6 +9138,10 @@
       <c r="B223">
         <v>15.229693641317503</v>
       </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>969.55240991635515</v>
+      </c>
       <c r="D223">
         <v>2.2200000000000002</v>
       </c>
@@ -10083,6 +9156,10 @@
       <c r="B224">
         <v>15.229552678117608</v>
       </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>969.54343592033206</v>
+      </c>
       <c r="D224">
         <v>2.23</v>
       </c>
@@ -10097,6 +9174,10 @@
       <c r="B225">
         <v>15.226917280703626</v>
       </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>969.3756613101533</v>
+      </c>
       <c r="D225">
         <v>2.2400000000000002</v>
       </c>
@@ -10111,6 +9192,10 @@
       <c r="B226">
         <v>15.228204490253413</v>
       </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>969.4576076152108</v>
+      </c>
       <c r="D226">
         <v>2.25</v>
       </c>
@@ -10125,6 +9210,10 @@
       <c r="B227">
         <v>15.230308548015765</v>
       </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>969.59155609258244</v>
+      </c>
       <c r="D227">
         <v>2.2600000000000002</v>
       </c>
@@ -10139,6 +9228,10 @@
       <c r="B228">
         <v>15.22754975557911</v>
       </c>
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>969.41592591127926</v>
+      </c>
       <c r="D228">
         <v>2.27</v>
       </c>
@@ -10153,6 +9246,10 @@
       <c r="B229">
         <v>15.226992261325817</v>
       </c>
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>969.3804347248165</v>
+      </c>
       <c r="D229">
         <v>2.2800000000000002</v>
       </c>
@@ -10167,6 +9264,10 @@
       <c r="B230">
         <v>15.229925526949241</v>
       </c>
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>969.56717221416432</v>
+      </c>
       <c r="D230">
         <v>2.29</v>
       </c>
@@ -10181,6 +9282,10 @@
       <c r="B231">
         <v>15.229315614182903</v>
       </c>
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>969.52834396151729</v>
+      </c>
       <c r="D231">
         <v>2.3000000000000003</v>
       </c>
@@ -10195,6 +9300,10 @@
       <c r="B232">
         <v>15.226885902710089</v>
       </c>
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>969.37366372504312</v>
+      </c>
       <c r="D232">
         <v>2.31</v>
       </c>
@@ -10209,6 +9318,10 @@
       <c r="B233">
         <v>15.228488384299217</v>
       </c>
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>969.47568087149239</v>
+      </c>
       <c r="D233">
         <v>2.3199999999999998</v>
       </c>
@@ -10223,6 +9336,10 @@
       <c r="B234">
         <v>15.230118614017998</v>
       </c>
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>969.57946451874011</v>
+      </c>
       <c r="D234">
         <v>2.33</v>
       </c>
@@ -10237,6 +9354,10 @@
       <c r="B235">
         <v>15.227404359342239</v>
       </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>969.40666969935728</v>
+      </c>
       <c r="D235">
         <v>2.34</v>
       </c>
@@ -10251,6 +9372,10 @@
       <c r="B236">
         <v>15.227686056566352</v>
       </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>969.4246031016263</v>
+      </c>
       <c r="D236">
         <v>2.35</v>
       </c>
@@ -10265,6 +9390,10 @@
       <c r="B237">
         <v>15.2301085007218</v>
       </c>
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>969.57882068630784</v>
+      </c>
       <c r="D237">
         <v>2.36</v>
       </c>
@@ -10279,6 +9408,10 @@
       <c r="B238">
         <v>15.227900117308204</v>
       </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>969.43823063170134</v>
+      </c>
       <c r="D238">
         <v>2.37</v>
       </c>
@@ -10293,6 +9426,10 @@
       <c r="B239">
         <v>15.227278369028825</v>
       </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>969.39864890689262</v>
+      </c>
       <c r="D239">
         <v>2.38</v>
       </c>
@@ -10307,6 +9444,10 @@
       <c r="B240">
         <v>15.229977497832396</v>
       </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>969.57048078334458</v>
+      </c>
       <c r="D240">
         <v>2.39</v>
       </c>
@@ -10321,6 +9462,10 @@
       <c r="B241">
         <v>15.228822112564917</v>
       </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>969.49692667274667</v>
+      </c>
       <c r="D241">
         <v>2.4</v>
       </c>
@@ -10335,6 +9480,10 @@
       <c r="B242">
         <v>15.227048622940307</v>
       </c>
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>969.38402281663514</v>
+      </c>
       <c r="D242">
         <v>2.41</v>
       </c>
@@ -10349,6 +9498,10 @@
       <c r="B243">
         <v>15.229295239360537</v>
       </c>
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>969.5270468600396</v>
+      </c>
       <c r="D243">
         <v>2.42</v>
       </c>
@@ -10363,6 +9516,10 @@
       <c r="B244">
         <v>15.229728562531118</v>
       </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>969.55463306986132</v>
+      </c>
       <c r="D244">
         <v>2.4300000000000002</v>
       </c>
@@ -10377,6 +9534,10 @@
       <c r="B245">
         <v>15.227088483966703</v>
       </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>969.38656044839013</v>
+      </c>
       <c r="D245">
         <v>2.44</v>
       </c>
@@ -10391,6 +9552,10 @@
       <c r="B246">
         <v>15.228202430395326</v>
       </c>
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>969.45747648057227</v>
+      </c>
       <c r="D246">
         <v>2.4500000000000002</v>
       </c>
@@ -10405,6 +9570,10 @@
       <c r="B247">
         <v>15.230132467619088</v>
       </c>
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>969.58034646637736</v>
+      </c>
       <c r="D247">
         <v>2.46</v>
       </c>
@@ -10419,6 +9588,10 @@
       <c r="B248">
         <v>15.227537504773359</v>
       </c>
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>969.41514600076243</v>
+      </c>
       <c r="D248">
         <v>2.4700000000000002</v>
       </c>
@@ -10433,6 +9606,10 @@
       <c r="B249">
         <v>15.227610030495306</v>
       </c>
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>969.41976313162195</v>
+      </c>
       <c r="D249">
         <v>2.48</v>
       </c>
@@ -10447,6 +9624,10 @@
       <c r="B250">
         <v>15.230099128423948</v>
       </c>
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>969.57822402729528</v>
+      </c>
       <c r="D250">
         <v>2.4900000000000002</v>
       </c>
@@ -10461,6 +9642,10 @@
       <c r="B251">
         <v>15.228056167111461</v>
       </c>
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>969.44816507072426</v>
+      </c>
       <c r="D251">
         <v>2.5</v>
       </c>
@@ -10475,6 +9660,10 @@
       <c r="B252">
         <v>15.227360416421899</v>
       </c>
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>969.40387220616287</v>
+      </c>
       <c r="D252">
         <v>2.5100000000000002</v>
       </c>
@@ -10489,6 +9678,10 @@
       <c r="B253">
         <v>15.22989534502266</v>
       </c>
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>969.56525077304127</v>
+      </c>
       <c r="D253">
         <v>2.52</v>
       </c>
@@ -10503,6 +9696,10 @@
       <c r="B254">
         <v>15.22848492797158</v>
       </c>
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>969.4754608348411</v>
+      </c>
       <c r="D254">
         <v>2.5300000000000002</v>
       </c>
@@ -10517,6 +9714,10 @@
       <c r="B255">
         <v>15.227325026526936</v>
       </c>
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>969.40161921547519</v>
+      </c>
       <c r="D255">
         <v>2.54</v>
       </c>
@@ -10531,6 +9732,10 @@
       <c r="B256">
         <v>15.229713328819997</v>
       </c>
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>969.55366326169064</v>
+      </c>
       <c r="D256">
         <v>2.5500000000000003</v>
       </c>
@@ -10545,6 +9750,10 @@
       <c r="B257">
         <v>15.228637374666441</v>
       </c>
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>969.48516589285919</v>
+      </c>
       <c r="D257">
         <v>2.56</v>
       </c>
@@ -10559,6 +9768,10 @@
       <c r="B258">
         <v>15.22738878241522</v>
       </c>
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>969.40567804138402</v>
+      </c>
       <c r="D258">
         <v>2.57</v>
       </c>
@@ -10573,6 +9786,10 @@
       <c r="B259">
         <v>15.229706014115191</v>
       </c>
+      <c r="C259">
+        <f t="shared" ref="C259:C322" si="4">B259/(2*PI())*400</f>
+        <v>969.55319759311976</v>
+      </c>
       <c r="D259">
         <v>2.58</v>
       </c>
@@ -10587,6 +9804,10 @@
       <c r="B260">
         <v>15.228596583667091</v>
       </c>
+      <c r="C260">
+        <f t="shared" si="4"/>
+        <v>969.48256905718711</v>
+      </c>
       <c r="D260">
         <v>2.59</v>
       </c>
@@ -10601,6 +9822,10 @@
       <c r="B261">
         <v>15.227442466014049</v>
       </c>
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>969.40909564543051</v>
+      </c>
       <c r="D261">
         <v>2.6</v>
       </c>
@@ -10615,6 +9840,10 @@
       <c r="B262">
         <v>15.229771365451462</v>
       </c>
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>969.55735798840192</v>
+      </c>
       <c r="D262">
         <v>2.61</v>
       </c>
@@ -10629,6 +9858,10 @@
       <c r="B263">
         <v>15.228530540238108</v>
       </c>
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>969.47836460191445</v>
+      </c>
       <c r="D263">
         <v>2.62</v>
       </c>
@@ -10643,6 +9876,10 @@
       <c r="B264">
         <v>15.227428007985667</v>
       </c>
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>969.40817521875681</v>
+      </c>
       <c r="D264">
         <v>2.63</v>
       </c>
@@ -10657,6 +9894,10 @@
       <c r="B265">
         <v>15.229760129332954</v>
       </c>
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>969.55664267488123</v>
+      </c>
       <c r="D265">
         <v>2.64</v>
       </c>
@@ -10671,6 +9912,10 @@
       <c r="B266">
         <v>15.228462473721958</v>
       </c>
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>969.47403135291279</v>
+      </c>
       <c r="D266">
         <v>2.65</v>
       </c>
@@ -10685,6 +9930,10 @@
       <c r="B267">
         <v>15.227522489566335</v>
       </c>
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>969.41419010299455</v>
+      </c>
       <c r="D267">
         <v>2.66</v>
       </c>
@@ -10699,6 +9948,10 @@
       <c r="B268">
         <v>15.229796180439887</v>
       </c>
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>969.55893775963011</v>
+      </c>
       <c r="D268">
         <v>2.67</v>
       </c>
@@ -10713,6 +9966,10 @@
       <c r="B269">
         <v>15.228212814914857</v>
       </c>
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>969.4581375796181</v>
+      </c>
       <c r="D269">
         <v>2.68</v>
       </c>
@@ -10727,6 +9984,10 @@
       <c r="B270">
         <v>15.227602676959858</v>
       </c>
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>969.4192949910157</v>
+      </c>
       <c r="D270">
         <v>2.69</v>
       </c>
@@ -10741,6 +10002,10 @@
       <c r="B271">
         <v>15.229890852893991</v>
       </c>
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>969.56496479524822</v>
+      </c>
       <c r="D271">
         <v>2.7</v>
       </c>
@@ -10755,6 +10020,10 @@
       <c r="B272">
         <v>15.228089265726902</v>
       </c>
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>969.45027219402698</v>
+      </c>
       <c r="D272">
         <v>2.71</v>
       </c>
@@ -10769,6 +10038,10 @@
       <c r="B273">
         <v>15.227726807560035</v>
       </c>
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>969.42719739045856</v>
+      </c>
       <c r="D273">
         <v>2.72</v>
       </c>
@@ -10783,6 +10056,10 @@
       <c r="B274">
         <v>15.229914907485568</v>
       </c>
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>969.56649615810966</v>
+      </c>
       <c r="D274">
         <v>2.73</v>
       </c>
@@ -10797,6 +10074,10 @@
       <c r="B275">
         <v>15.227903961778813</v>
       </c>
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>969.43847537830175</v>
+      </c>
       <c r="D275">
         <v>2.74</v>
       </c>
@@ -10811,6 +10092,10 @@
       <c r="B276">
         <v>15.227822277140545</v>
       </c>
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>969.43327517271985</v>
+      </c>
       <c r="D276">
         <v>2.75</v>
       </c>
@@ -10825,6 +10110,10 @@
       <c r="B277">
         <v>15.230009691582143</v>
       </c>
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>969.57253030110826</v>
+      </c>
       <c r="D277">
         <v>2.7600000000000002</v>
       </c>
@@ -10839,6 +10128,10 @@
       <c r="B278">
         <v>15.227817248107332</v>
       </c>
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>969.43295501452201</v>
+      </c>
       <c r="D278">
         <v>2.77</v>
       </c>
@@ -10853,6 +10146,10 @@
       <c r="B279">
         <v>15.227599242770985</v>
       </c>
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>969.41907636376197</v>
+      </c>
       <c r="D279">
         <v>2.7800000000000002</v>
       </c>
@@ -10867,6 +10164,10 @@
       <c r="B280">
         <v>15.230015717181496</v>
       </c>
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>969.5729139026771</v>
+      </c>
       <c r="D280">
         <v>2.79</v>
       </c>
@@ -10881,6 +10182,10 @@
       <c r="B281">
         <v>15.228076066832561</v>
       </c>
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>969.44943192631592</v>
+      </c>
       <c r="D281">
         <v>2.8000000000000003</v>
       </c>
@@ -10895,6 +10200,10 @@
       <c r="B282">
         <v>15.227504577559111</v>
       </c>
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>969.41304978919845</v>
+      </c>
       <c r="D282">
         <v>2.81</v>
       </c>
@@ -10909,6 +10218,10 @@
       <c r="B283">
         <v>15.229923635558617</v>
       </c>
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>969.5670518044974</v>
+      </c>
       <c r="D283">
         <v>2.82</v>
       </c>
@@ -10923,6 +10236,10 @@
       <c r="B284">
         <v>15.228226616093258</v>
       </c>
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>969.45901618992332</v>
+      </c>
       <c r="D284">
         <v>2.83</v>
       </c>
@@ -10937,6 +10254,10 @@
       <c r="B285">
         <v>15.227531808238995</v>
       </c>
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>969.41478334812143</v>
+      </c>
       <c r="D285">
         <v>2.84</v>
       </c>
@@ -10951,6 +10272,10 @@
       <c r="B286">
         <v>15.22990582784103</v>
       </c>
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>969.56591812998579</v>
+      </c>
       <c r="D286">
         <v>2.85</v>
       </c>
@@ -10965,6 +10290,10 @@
       <c r="B287">
         <v>15.228239787738955</v>
       </c>
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>969.45985472293182</v>
+      </c>
       <c r="D287">
         <v>2.86</v>
       </c>
@@ -10979,6 +10308,10 @@
       <c r="B288">
         <v>15.227524083991996</v>
       </c>
+      <c r="C288">
+        <f t="shared" si="4"/>
+        <v>969.41429160728467</v>
+      </c>
       <c r="D288">
         <v>2.87</v>
       </c>
@@ -10993,6 +10326,10 @@
       <c r="B289">
         <v>15.229887258077468</v>
       </c>
+      <c r="C289">
+        <f t="shared" si="4"/>
+        <v>969.56473594212071</v>
+      </c>
       <c r="D289">
         <v>2.88</v>
       </c>
@@ -11007,6 +10344,10 @@
       <c r="B290">
         <v>15.228231288150784</v>
       </c>
+      <c r="C290">
+        <f t="shared" si="4"/>
+        <v>969.45931362234319</v>
+      </c>
       <c r="D290">
         <v>2.89</v>
       </c>
@@ -11021,6 +10362,10 @@
       <c r="B291">
         <v>15.227564709581227</v>
       </c>
+      <c r="C291">
+        <f t="shared" si="4"/>
+        <v>969.41687791262154</v>
+      </c>
       <c r="D291">
         <v>2.9</v>
       </c>
@@ -11035,6 +10380,10 @@
       <c r="B292">
         <v>15.229895000435539</v>
       </c>
+      <c r="C292">
+        <f t="shared" si="4"/>
+        <v>969.5652288359438</v>
+      </c>
       <c r="D292">
         <v>2.91</v>
       </c>
@@ -11049,6 +10398,10 @@
       <c r="B293">
         <v>15.228165228217525</v>
       </c>
+      <c r="C293">
+        <f t="shared" si="4"/>
+        <v>969.45510811637587</v>
+      </c>
       <c r="D293">
         <v>2.92</v>
       </c>
@@ -11063,6 +10416,10 @@
       <c r="B294">
         <v>15.227632430484563</v>
       </c>
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>969.42118915922822</v>
+      </c>
       <c r="D294">
         <v>2.93</v>
       </c>
@@ -11077,6 +10434,10 @@
       <c r="B295">
         <v>15.229926012967683</v>
       </c>
+      <c r="C295">
+        <f t="shared" si="4"/>
+        <v>969.56720315505913</v>
+      </c>
       <c r="D295">
         <v>2.94</v>
       </c>
@@ -11091,6 +10452,10 @@
       <c r="B296">
         <v>15.228084046750878</v>
       </c>
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>969.44993994369406</v>
+      </c>
       <c r="D296">
         <v>2.95</v>
       </c>
@@ -11105,6 +10470,10 @@
       <c r="B297">
         <v>15.22775356117482</v>
       </c>
+      <c r="C297">
+        <f t="shared" si="4"/>
+        <v>969.4289005784741</v>
+      </c>
       <c r="D297">
         <v>2.96</v>
       </c>
@@ -11119,6 +10488,10 @@
       <c r="B298">
         <v>15.229932691781652</v>
       </c>
+      <c r="C298">
+        <f t="shared" si="4"/>
+        <v>969.567628341562</v>
+      </c>
       <c r="D298">
         <v>2.97</v>
       </c>
@@ -11133,6 +10506,10 @@
       <c r="B299">
         <v>15.22790472227482</v>
       </c>
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>969.4385237929813</v>
+      </c>
       <c r="D299">
         <v>2.98</v>
       </c>
@@ -11147,6 +10524,10 @@
       <c r="B300">
         <v>15.227853564052367</v>
       </c>
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>969.43526695938806</v>
+      </c>
       <c r="D300">
         <v>2.99</v>
       </c>
@@ -11161,6 +10542,10 @@
       <c r="B301">
         <v>15.229900225742192</v>
       </c>
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>969.56556148929712</v>
+      </c>
       <c r="D301">
         <v>3</v>
       </c>
@@ -11175,6 +10560,10 @@
       <c r="B302">
         <v>15.227704288856163</v>
       </c>
+      <c r="C302">
+        <f t="shared" si="4"/>
+        <v>969.42576380524542</v>
+      </c>
       <c r="D302">
         <v>3.0100000000000002</v>
       </c>
@@ -11189,6 +10578,10 @@
       <c r="B303">
         <v>15.22789000958239</v>
       </c>
+      <c r="C303">
+        <f t="shared" si="4"/>
+        <v>969.43758715389072</v>
+      </c>
       <c r="D303">
         <v>3.02</v>
       </c>
@@ -11203,6 +10596,10 @@
       <c r="B304">
         <v>15.229996544287122</v>
       </c>
+      <c r="C304">
+        <f t="shared" si="4"/>
+        <v>969.57169331831187</v>
+      </c>
       <c r="D304">
         <v>3.0300000000000002</v>
       </c>
@@ -11217,6 +10614,10 @@
       <c r="B305">
         <v>15.227762634257557</v>
       </c>
+      <c r="C305">
+        <f t="shared" si="4"/>
+        <v>969.42947818886068</v>
+      </c>
       <c r="D305">
         <v>3.04</v>
       </c>
@@ -11231,6 +10632,10 @@
       <c r="B306">
         <v>15.227905662789883</v>
       </c>
+      <c r="C306">
+        <f t="shared" si="4"/>
+        <v>969.43858366802988</v>
+      </c>
       <c r="D306">
         <v>3.0500000000000003</v>
       </c>
@@ -11245,6 +10650,10 @@
       <c r="B307">
         <v>15.229968755429335</v>
       </c>
+      <c r="C307">
+        <f t="shared" si="4"/>
+        <v>969.56992422467999</v>
+      </c>
       <c r="D307">
         <v>3.06</v>
       </c>
@@ -11259,6 +10668,10 @@
       <c r="B308">
         <v>15.227693050774121</v>
       </c>
+      <c r="C308">
+        <f t="shared" si="4"/>
+        <v>969.42504836672219</v>
+      </c>
       <c r="D308">
         <v>3.0700000000000003</v>
       </c>
@@ -11273,6 +10686,10 @@
       <c r="B309">
         <v>15.227800125828084</v>
       </c>
+      <c r="C309">
+        <f t="shared" si="4"/>
+        <v>969.43186497637021</v>
+      </c>
       <c r="D309">
         <v>3.08</v>
       </c>
@@ -11287,6 +10704,10 @@
       <c r="B310">
         <v>15.230027042277586</v>
       </c>
+      <c r="C310">
+        <f t="shared" si="4"/>
+        <v>969.57363488068643</v>
+      </c>
       <c r="D310">
         <v>3.09</v>
       </c>
@@ -11301,6 +10722,10 @@
       <c r="B311">
         <v>15.227834813664622</v>
       </c>
+      <c r="C311">
+        <f t="shared" si="4"/>
+        <v>969.43407327263014</v>
+      </c>
       <c r="D311">
         <v>3.1</v>
       </c>
@@ -11315,6 +10740,10 @@
       <c r="B312">
         <v>15.227713080463001</v>
       </c>
+      <c r="C312">
+        <f t="shared" si="4"/>
+        <v>969.4263234963197</v>
+      </c>
       <c r="D312">
         <v>3.11</v>
       </c>
@@ -11329,6 +10758,10 @@
       <c r="B313">
         <v>15.22997025309536</v>
       </c>
+      <c r="C313">
+        <f t="shared" si="4"/>
+        <v>969.57001956906038</v>
+      </c>
       <c r="D313">
         <v>3.12</v>
       </c>
@@ -11343,6 +10776,10 @@
       <c r="B314">
         <v>15.227865150358125</v>
       </c>
+      <c r="C314">
+        <f t="shared" si="4"/>
+        <v>969.43600456652155</v>
+      </c>
       <c r="D314">
         <v>3.13</v>
       </c>
@@ -11357,6 +10794,10 @@
       <c r="B315">
         <v>15.227617333282534</v>
       </c>
+      <c r="C315">
+        <f t="shared" si="4"/>
+        <v>969.42022804149633</v>
+      </c>
       <c r="D315">
         <v>3.14</v>
       </c>
@@ -11371,6 +10812,10 @@
       <c r="B316">
         <v>15.230008406396243</v>
       </c>
+      <c r="C316">
+        <f t="shared" si="4"/>
+        <v>969.57244848363257</v>
+      </c>
       <c r="D316">
         <v>3.15</v>
       </c>
@@ -11385,6 +10830,10 @@
       <c r="B317">
         <v>15.228036748969851</v>
       </c>
+      <c r="C317">
+        <f t="shared" si="4"/>
+        <v>969.44692887343501</v>
+      </c>
       <c r="D317">
         <v>3.16</v>
       </c>
@@ -11399,6 +10848,10 @@
       <c r="B318">
         <v>15.227404014775077</v>
       </c>
+      <c r="C318">
+        <f t="shared" si="4"/>
+        <v>969.40664776353049</v>
+      </c>
       <c r="D318">
         <v>3.17</v>
       </c>
@@ -11413,6 +10866,10 @@
       <c r="B319">
         <v>15.229930785927602</v>
       </c>
+      <c r="C319">
+        <f t="shared" si="4"/>
+        <v>969.56750701112492</v>
+      </c>
       <c r="D319">
         <v>3.18</v>
       </c>
@@ -11427,6 +10884,10 @@
       <c r="B320">
         <v>15.228430482535716</v>
       </c>
+      <c r="C320">
+        <f t="shared" si="4"/>
+        <v>969.47199473074249</v>
+      </c>
       <c r="D320">
         <v>3.19</v>
       </c>
@@ -11441,6 +10902,10 @@
       <c r="B321">
         <v>15.227297485174937</v>
       </c>
+      <c r="C321">
+        <f t="shared" si="4"/>
+        <v>969.39986587855117</v>
+      </c>
       <c r="D321">
         <v>3.2</v>
       </c>
@@ -11455,6 +10920,10 @@
       <c r="B322">
         <v>15.229759543574007</v>
       </c>
+      <c r="C322">
+        <f t="shared" si="4"/>
+        <v>969.55660538430845</v>
+      </c>
       <c r="D322">
         <v>3.21</v>
       </c>
@@ -11469,6 +10938,10 @@
       <c r="B323">
         <v>15.228847575837197</v>
       </c>
+      <c r="C323">
+        <f t="shared" ref="C323:C386" si="5">B323/(2*PI())*400</f>
+        <v>969.49854771500691</v>
+      </c>
       <c r="D323">
         <v>3.22</v>
       </c>
@@ -11483,6 +10956,10 @@
       <c r="B324">
         <v>15.227221300107972</v>
       </c>
+      <c r="C324">
+        <f t="shared" si="5"/>
+        <v>969.39501578655245</v>
+      </c>
       <c r="D324">
         <v>3.23</v>
       </c>
@@ -11497,6 +10974,10 @@
       <c r="B325">
         <v>15.229485552954156</v>
       </c>
+      <c r="C325">
+        <f t="shared" si="5"/>
+        <v>969.53916259970435</v>
+      </c>
       <c r="D325">
         <v>3.24</v>
       </c>
@@ -11511,6 +10992,10 @@
       <c r="B326">
         <v>15.229201471521442</v>
       </c>
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>969.52107741400152</v>
+      </c>
       <c r="D326">
         <v>3.25</v>
       </c>
@@ -11525,6 +11010,10 @@
       <c r="B327">
         <v>15.227230285950588</v>
       </c>
+      <c r="C327">
+        <f t="shared" si="5"/>
+        <v>969.39558784306041</v>
+      </c>
       <c r="D327">
         <v>3.2600000000000002</v>
       </c>
@@ -11539,6 +11028,10 @@
       <c r="B328">
         <v>15.229231097369166</v>
       </c>
+      <c r="C328">
+        <f t="shared" si="5"/>
+        <v>969.522963454045</v>
+      </c>
       <c r="D328">
         <v>3.27</v>
       </c>
@@ -11553,6 +11046,10 @@
       <c r="B329">
         <v>15.229371371837129</v>
       </c>
+      <c r="C329">
+        <f t="shared" si="5"/>
+        <v>969.53189360403144</v>
+      </c>
       <c r="D329">
         <v>3.2800000000000002</v>
       </c>
@@ -11567,6 +11064,10 @@
       <c r="B330">
         <v>15.227281683806115</v>
       </c>
+      <c r="C330">
+        <f t="shared" si="5"/>
+        <v>969.39885993216899</v>
+      </c>
       <c r="D330">
         <v>3.29</v>
       </c>
@@ -11581,6 +11082,10 @@
       <c r="B331">
         <v>15.229122757947856</v>
       </c>
+      <c r="C331">
+        <f t="shared" si="5"/>
+        <v>969.51606635227176</v>
+      </c>
       <c r="D331">
         <v>3.3000000000000003</v>
       </c>
@@ -11595,6 +11100,10 @@
       <c r="B332">
         <v>15.229476856113736</v>
       </c>
+      <c r="C332">
+        <f t="shared" si="5"/>
+        <v>969.53860894164757</v>
+      </c>
       <c r="D332">
         <v>3.31</v>
       </c>
@@ -11609,6 +11118,10 @@
       <c r="B333">
         <v>15.227272507655943</v>
       </c>
+      <c r="C333">
+        <f t="shared" si="5"/>
+        <v>969.39827576030564</v>
+      </c>
       <c r="D333">
         <v>3.3200000000000003</v>
       </c>
@@ -11623,6 +11136,10 @@
       <c r="B334">
         <v>15.228950019470476</v>
       </c>
+      <c r="C334">
+        <f t="shared" si="5"/>
+        <v>969.5050694792568</v>
+      </c>
       <c r="D334">
         <v>3.33</v>
       </c>
@@ -11637,6 +11154,10 @@
       <c r="B335">
         <v>15.229558364499409</v>
       </c>
+      <c r="C335">
+        <f t="shared" si="5"/>
+        <v>969.54379792664088</v>
+      </c>
       <c r="D335">
         <v>3.34</v>
       </c>
@@ -11651,6 +11172,10 @@
       <c r="B336">
         <v>15.227308782443385</v>
       </c>
+      <c r="C336">
+        <f t="shared" si="5"/>
+        <v>969.40058508499817</v>
+      </c>
       <c r="D336">
         <v>3.35</v>
       </c>
@@ -11665,6 +11190,10 @@
       <c r="B337">
         <v>15.228863692314455</v>
       </c>
+      <c r="C337">
+        <f t="shared" si="5"/>
+        <v>969.49957372181541</v>
+      </c>
       <c r="D337">
         <v>3.36</v>
       </c>
@@ -11679,6 +11208,10 @@
       <c r="B338">
         <v>15.229577228918613</v>
       </c>
+      <c r="C338">
+        <f t="shared" si="5"/>
+        <v>969.54499887286693</v>
+      </c>
       <c r="D338">
         <v>3.37</v>
       </c>
@@ -11693,6 +11226,10 @@
       <c r="B339">
         <v>15.227305409608327</v>
       </c>
+      <c r="C339">
+        <f t="shared" si="5"/>
+        <v>969.40037036364936</v>
+      </c>
       <c r="D339">
         <v>3.38</v>
       </c>
@@ -11707,6 +11244,10 @@
       <c r="B340">
         <v>15.228799076729413</v>
       </c>
+      <c r="C340">
+        <f t="shared" si="5"/>
+        <v>969.49546016591114</v>
+      </c>
       <c r="D340">
         <v>3.39</v>
       </c>
@@ -11721,6 +11262,10 @@
       <c r="B341">
         <v>15.229606145922428</v>
       </c>
+      <c r="C341">
+        <f t="shared" si="5"/>
+        <v>969.54683978650542</v>
+      </c>
       <c r="D341">
         <v>3.4</v>
       </c>
@@ -11735,6 +11280,10 @@
       <c r="B342">
         <v>15.227354218610083</v>
       </c>
+      <c r="C342">
+        <f t="shared" si="5"/>
+        <v>969.40347764120816</v>
+      </c>
       <c r="D342">
         <v>3.41</v>
       </c>
@@ -11749,6 +11298,10 @@
       <c r="B343">
         <v>15.228840826867811</v>
       </c>
+      <c r="C343">
+        <f t="shared" si="5"/>
+        <v>969.49811806227149</v>
+      </c>
       <c r="D343">
         <v>3.42</v>
       </c>
@@ -11763,6 +11316,10 @@
       <c r="B344">
         <v>15.229562881564149</v>
       </c>
+      <c r="C344">
+        <f t="shared" si="5"/>
+        <v>969.54408549191362</v>
+      </c>
       <c r="D344">
         <v>3.43</v>
       </c>
@@ -11777,6 +11334,10 @@
       <c r="B345">
         <v>15.227358478182119</v>
       </c>
+      <c r="C345">
+        <f t="shared" si="5"/>
+        <v>969.40374881398611</v>
+      </c>
       <c r="D345">
         <v>3.44</v>
       </c>
@@ -11791,6 +11352,10 @@
       <c r="B346">
         <v>15.228933453672479</v>
       </c>
+      <c r="C346">
+        <f t="shared" si="5"/>
+        <v>969.50401486780174</v>
+      </c>
       <c r="D346">
         <v>3.45</v>
       </c>
@@ -11805,6 +11370,10 @@
       <c r="B347">
         <v>15.229444179549095</v>
       </c>
+      <c r="C347">
+        <f t="shared" si="5"/>
+        <v>969.53652868693325</v>
+      </c>
       <c r="D347">
         <v>3.46</v>
       </c>
@@ -11819,6 +11388,10 @@
       <c r="B348">
         <v>15.227363609051029</v>
       </c>
+      <c r="C348">
+        <f t="shared" si="5"/>
+        <v>969.4040754552459</v>
+      </c>
       <c r="D348">
         <v>3.47</v>
       </c>
@@ -11833,6 +11406,10 @@
       <c r="B349">
         <v>15.229131426007424</v>
       </c>
+      <c r="C349">
+        <f t="shared" si="5"/>
+        <v>969.51661817808258</v>
+      </c>
       <c r="D349">
         <v>3.48</v>
       </c>
@@ -11847,6 +11424,10 @@
       <c r="B350">
         <v>15.229347527927564</v>
       </c>
+      <c r="C350">
+        <f t="shared" si="5"/>
+        <v>969.5303756536033</v>
+      </c>
       <c r="D350">
         <v>3.49</v>
       </c>
@@ -11861,6 +11442,10 @@
       <c r="B351">
         <v>15.227360411128798</v>
       </c>
+      <c r="C351">
+        <f t="shared" si="5"/>
+        <v>969.40387186919349</v>
+      </c>
       <c r="D351">
         <v>3.5</v>
       </c>
@@ -11875,6 +11460,10 @@
       <c r="B352">
         <v>15.229264914737898</v>
       </c>
+      <c r="C352">
+        <f t="shared" si="5"/>
+        <v>969.52511633460347</v>
+      </c>
       <c r="D352">
         <v>3.5100000000000002</v>
       </c>
@@ -11889,6 +11478,10 @@
       <c r="B353">
         <v>15.229252012768466</v>
       </c>
+      <c r="C353">
+        <f t="shared" si="5"/>
+        <v>969.52429496971911</v>
+      </c>
       <c r="D353">
         <v>3.52</v>
       </c>
@@ -11903,6 +11496,10 @@
       <c r="B354">
         <v>15.227326041471386</v>
       </c>
+      <c r="C354">
+        <f t="shared" si="5"/>
+        <v>969.40168382884565</v>
+      </c>
       <c r="D354">
         <v>3.5300000000000002</v>
       </c>
@@ -11917,6 +11514,10 @@
       <c r="B355">
         <v>15.229308772903426</v>
       </c>
+      <c r="C355">
+        <f t="shared" si="5"/>
+        <v>969.52790843213882</v>
+      </c>
       <c r="D355">
         <v>3.54</v>
       </c>
@@ -11931,6 +11532,10 @@
       <c r="B356">
         <v>15.229181408539143</v>
       </c>
+      <c r="C356">
+        <f t="shared" si="5"/>
+        <v>969.51980016487914</v>
+      </c>
       <c r="D356">
         <v>3.5500000000000003</v>
       </c>
@@ -11945,6 +11550,10 @@
       <c r="B357">
         <v>15.227427181586089</v>
       </c>
+      <c r="C357">
+        <f t="shared" si="5"/>
+        <v>969.40812260852579</v>
+      </c>
       <c r="D357">
         <v>3.56</v>
       </c>
@@ -11959,6 +11568,10 @@
       <c r="B358">
         <v>15.229494858442155</v>
       </c>
+      <c r="C358">
+        <f t="shared" si="5"/>
+        <v>969.53975500546949</v>
+      </c>
       <c r="D358">
         <v>3.5700000000000003</v>
       </c>
@@ -11973,6 +11586,10 @@
       <c r="B359">
         <v>15.228895516895783</v>
       </c>
+      <c r="C359">
+        <f t="shared" si="5"/>
+        <v>969.50159973758741</v>
+      </c>
       <c r="D359">
         <v>3.58</v>
       </c>
@@ -11987,6 +11604,10 @@
       <c r="B360">
         <v>15.227413746643077</v>
       </c>
+      <c r="C360">
+        <f t="shared" si="5"/>
+        <v>969.40726731348957</v>
+      </c>
       <c r="D360">
         <v>3.59</v>
       </c>
@@ -12001,6 +11622,10 @@
       <c r="B361">
         <v>15.22962333701083</v>
       </c>
+      <c r="C361">
+        <f t="shared" si="5"/>
+        <v>969.54793420518399</v>
+      </c>
       <c r="D361">
         <v>3.6</v>
       </c>
@@ -12015,6 +11640,10 @@
       <c r="B362">
         <v>15.228671024604141</v>
       </c>
+      <c r="C362">
+        <f t="shared" si="5"/>
+        <v>969.48730811442715</v>
+      </c>
       <c r="D362">
         <v>3.61</v>
       </c>
@@ -12029,6 +11658,10 @@
       <c r="B363">
         <v>15.227491804552953</v>
       </c>
+      <c r="C363">
+        <f t="shared" si="5"/>
+        <v>969.41223663437108</v>
+      </c>
       <c r="D363">
         <v>3.62</v>
       </c>
@@ -12043,6 +11676,10 @@
       <c r="B364">
         <v>15.229749431684196</v>
       </c>
+      <c r="C364">
+        <f t="shared" si="5"/>
+        <v>969.55596164140945</v>
+      </c>
       <c r="D364">
         <v>3.63</v>
       </c>
@@ -12057,6 +11694,10 @@
       <c r="B365">
         <v>15.22840096555764</v>
       </c>
+      <c r="C365">
+        <f t="shared" si="5"/>
+        <v>969.47011562155615</v>
+      </c>
       <c r="D365">
         <v>3.64</v>
       </c>
@@ -12071,6 +11712,10 @@
       <c r="B366">
         <v>15.22758405168452</v>
       </c>
+      <c r="C366">
+        <f t="shared" si="5"/>
+        <v>969.41810926916116</v>
+      </c>
       <c r="D366">
         <v>3.65</v>
       </c>
@@ -12085,6 +11730,10 @@
       <c r="B367">
         <v>15.229848692938166</v>
       </c>
+      <c r="C367">
+        <f t="shared" si="5"/>
+        <v>969.56228080910023</v>
+      </c>
       <c r="D367">
         <v>3.66</v>
       </c>
@@ -12099,6 +11748,10 @@
       <c r="B368">
         <v>15.228160930595566</v>
       </c>
+      <c r="C368">
+        <f t="shared" si="5"/>
+        <v>969.4548345212645</v>
+      </c>
       <c r="D368">
         <v>3.67</v>
       </c>
@@ -12113,6 +11766,10 @@
       <c r="B369">
         <v>15.227712133753812</v>
       </c>
+      <c r="C369">
+        <f t="shared" si="5"/>
+        <v>969.42626322694082</v>
+      </c>
       <c r="D369">
         <v>3.68</v>
       </c>
@@ -12127,6 +11784,10 @@
       <c r="B370">
         <v>15.229898310779308</v>
       </c>
+      <c r="C370">
+        <f t="shared" si="5"/>
+        <v>969.5654395789735</v>
+      </c>
       <c r="D370">
         <v>3.69</v>
       </c>
@@ -12141,6 +11802,10 @@
       <c r="B371">
         <v>15.227930678102185</v>
       </c>
+      <c r="C371">
+        <f t="shared" si="5"/>
+        <v>969.44017619227213</v>
+      </c>
       <c r="D371">
         <v>3.7</v>
       </c>
@@ -12155,6 +11820,10 @@
       <c r="B372">
         <v>15.227845118581749</v>
       </c>
+      <c r="C372">
+        <f t="shared" si="5"/>
+        <v>969.43472930402982</v>
+      </c>
       <c r="D372">
         <v>3.71</v>
       </c>
@@ -12169,6 +11838,10 @@
       <c r="B373">
         <v>15.229929698460088</v>
       </c>
+      <c r="C373">
+        <f t="shared" si="5"/>
+        <v>969.56743778079294</v>
+      </c>
       <c r="D373">
         <v>3.72</v>
       </c>
@@ -12183,6 +11856,10 @@
       <c r="B374">
         <v>15.22779978889124</v>
       </c>
+      <c r="C374">
+        <f t="shared" si="5"/>
+        <v>969.43184352630442</v>
+      </c>
       <c r="D374">
         <v>3.73</v>
       </c>
@@ -12197,6 +11874,10 @@
       <c r="B375">
         <v>15.228025858344644</v>
       </c>
+      <c r="C375">
+        <f t="shared" si="5"/>
+        <v>969.44623555470105</v>
+      </c>
       <c r="D375">
         <v>3.74</v>
       </c>
@@ -12211,6 +11892,10 @@
       <c r="B376">
         <v>15.229873542134783</v>
       </c>
+      <c r="C376">
+        <f t="shared" si="5"/>
+        <v>969.56386275808961</v>
+      </c>
       <c r="D376">
         <v>3.75</v>
       </c>
@@ -12225,6 +11910,10 @@
       <c r="B377">
         <v>15.22765565058805</v>
       </c>
+      <c r="C377">
+        <f t="shared" si="5"/>
+        <v>969.42266739692786</v>
+      </c>
       <c r="D377">
         <v>3.7600000000000002</v>
       </c>
@@ -12239,6 +11928,10 @@
       <c r="B378">
         <v>15.228307254936901</v>
       </c>
+      <c r="C378">
+        <f t="shared" si="5"/>
+        <v>969.46414981815178</v>
+      </c>
       <c r="D378">
         <v>3.77</v>
       </c>
@@ -12253,6 +11946,10 @@
       <c r="B379">
         <v>15.229758309726531</v>
       </c>
+      <c r="C379">
+        <f t="shared" si="5"/>
+        <v>969.55652683513858</v>
+      </c>
       <c r="D379">
         <v>3.7800000000000002</v>
       </c>
@@ -12267,6 +11964,10 @@
       <c r="B380">
         <v>15.227514397773392</v>
       </c>
+      <c r="C380">
+        <f t="shared" si="5"/>
+        <v>969.4136749634564</v>
+      </c>
       <c r="D380">
         <v>3.79</v>
       </c>
@@ -12281,6 +11982,10 @@
       <c r="B381">
         <v>15.228630475292348</v>
       </c>
+      <c r="C381">
+        <f t="shared" si="5"/>
+        <v>969.48472666506279</v>
+      </c>
       <c r="D381">
         <v>3.8000000000000003</v>
       </c>
@@ -12295,6 +12000,10 @@
       <c r="B382">
         <v>15.229708894961842</v>
       </c>
+      <c r="C382">
+        <f t="shared" si="5"/>
+        <v>969.55338099351366</v>
+      </c>
       <c r="D382">
         <v>3.81</v>
       </c>
@@ -12309,6 +12018,10 @@
       <c r="B383">
         <v>15.227396618712795</v>
       </c>
+      <c r="C383">
+        <f t="shared" si="5"/>
+        <v>969.4061769155818</v>
+      </c>
       <c r="D383">
         <v>3.8200000000000003</v>
       </c>
@@ -12323,6 +12036,10 @@
       <c r="B384">
         <v>15.228678640540679</v>
       </c>
+      <c r="C384">
+        <f t="shared" si="5"/>
+        <v>969.48779296000555</v>
+      </c>
       <c r="D384">
         <v>3.83</v>
       </c>
@@ -12337,6 +12054,10 @@
       <c r="B385">
         <v>15.229672169756427</v>
       </c>
+      <c r="C385">
+        <f t="shared" si="5"/>
+        <v>969.55104299432242</v>
+      </c>
       <c r="D385">
         <v>3.84</v>
       </c>
@@ -12351,6 +12072,10 @@
       <c r="B386">
         <v>15.2274290436252</v>
       </c>
+      <c r="C386">
+        <f t="shared" si="5"/>
+        <v>969.4082411496172</v>
+      </c>
       <c r="D386">
         <v>3.85</v>
       </c>
@@ -12365,6 +12090,10 @@
       <c r="B387">
         <v>15.228850954243109</v>
       </c>
+      <c r="C387">
+        <f t="shared" ref="C387:C401" si="6">B387/(2*PI())*400</f>
+        <v>969.49876279100715</v>
+      </c>
       <c r="D387">
         <v>3.86</v>
       </c>
@@ -12379,6 +12108,10 @@
       <c r="B388">
         <v>15.229512833922684</v>
       </c>
+      <c r="C388">
+        <f t="shared" si="6"/>
+        <v>969.54089936010166</v>
+      </c>
       <c r="D388">
         <v>3.87</v>
       </c>
@@ -12393,6 +12126,10 @@
       <c r="B389">
         <v>15.227381694687505</v>
       </c>
+      <c r="C389">
+        <f t="shared" si="6"/>
+        <v>969.40522682262349</v>
+      </c>
       <c r="D389">
         <v>3.88</v>
       </c>
@@ -12407,6 +12144,10 @@
       <c r="B390">
         <v>15.229058423070086</v>
       </c>
+      <c r="C390">
+        <f t="shared" si="6"/>
+        <v>969.51197066674763</v>
+      </c>
       <c r="D390">
         <v>3.89</v>
       </c>
@@ -12421,6 +12162,10 @@
       <c r="B391">
         <v>15.229383406236744</v>
       </c>
+      <c r="C391">
+        <f t="shared" si="6"/>
+        <v>969.53265973770579</v>
+      </c>
       <c r="D391">
         <v>3.9</v>
       </c>
@@ -12435,6 +12180,10 @@
       <c r="B392">
         <v>15.227436435371979</v>
       </c>
+      <c r="C392">
+        <f t="shared" si="6"/>
+        <v>969.40871172283244</v>
+      </c>
       <c r="D392">
         <v>3.91</v>
       </c>
@@ -12449,6 +12198,10 @@
       <c r="B393">
         <v>15.229327414097458</v>
       </c>
+      <c r="C393">
+        <f t="shared" si="6"/>
+        <v>969.52909516740908</v>
+      </c>
       <c r="D393">
         <v>3.92</v>
       </c>
@@ -12463,6 +12216,10 @@
       <c r="B394">
         <v>15.229028971734268</v>
       </c>
+      <c r="C394">
+        <f t="shared" si="6"/>
+        <v>969.51009573647707</v>
+      </c>
       <c r="D394">
         <v>3.93</v>
       </c>
@@ -12477,6 +12234,10 @@
       <c r="B395">
         <v>15.227445788817613</v>
       </c>
+      <c r="C395">
+        <f t="shared" si="6"/>
+        <v>969.40930718167544</v>
+      </c>
       <c r="D395">
         <v>3.94</v>
       </c>
@@ -12491,6 +12252,10 @@
       <c r="B396">
         <v>15.229577275586832</v>
       </c>
+      <c r="C396">
+        <f t="shared" si="6"/>
+        <v>969.54500184385802</v>
+      </c>
       <c r="D396">
         <v>3.95</v>
       </c>
@@ -12505,6 +12270,10 @@
       <c r="B397">
         <v>15.228644407579374</v>
       </c>
+      <c r="C397">
+        <f t="shared" si="6"/>
+        <v>969.48561362200212</v>
+      </c>
       <c r="D397">
         <v>3.96</v>
       </c>
@@ -12519,6 +12288,10 @@
       <c r="B398">
         <v>15.227562663876936</v>
       </c>
+      <c r="C398">
+        <f t="shared" si="6"/>
+        <v>969.41674767904158</v>
+      </c>
       <c r="D398">
         <v>3.97</v>
       </c>
@@ -12533,6 +12306,10 @@
       <c r="B399">
         <v>15.229764055013852</v>
       </c>
+      <c r="C399">
+        <f t="shared" si="6"/>
+        <v>969.55689259148915</v>
+      </c>
       <c r="D399">
         <v>3.98</v>
       </c>
@@ -12547,6 +12324,10 @@
       <c r="B400">
         <v>15.22820828924983</v>
       </c>
+      <c r="C400">
+        <f t="shared" si="6"/>
+        <v>969.4578494668342</v>
+      </c>
       <c r="D400">
         <v>3.99</v>
       </c>
@@ -12560,6 +12341,10 @@
       </c>
       <c r="B401">
         <v>15.227653385251076</v>
+      </c>
+      <c r="C401">
+        <f t="shared" si="6"/>
+        <v>969.42252318109695</v>
       </c>
       <c r="D401">
         <v>4</v>
